--- a/tabuladoSHF.xlsx
+++ b/tabuladoSHF.xlsx
@@ -1,26 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto.galindo\Documents\GitHub\SIE\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B75E42D-5C0F-435D-93AE-C2C58D7770B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="shf" sheetId="1" r:id="rId1"/>
+    <sheet name="shf" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>Índice de precios hipotecarios</t>
   </si>
@@ -28,16 +21,16 @@
     <t>2017=100</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2019 T1- 2021 T1</t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>2019 T1- 2020 T4</t>
   </si>
   <si>
     <t>Periodicidad Trimestral</t>
   </si>
   <si>
-    <t>Agosto 2021</t>
+    <t>Mayo 2021</t>
   </si>
   <si>
     <t>FUENTE: SHF; Sociedad Hipotecaía Federal</t>
@@ -70,9 +63,6 @@
     <t>Índice SHF 2020 T4</t>
   </si>
   <si>
-    <t>Índice SHF 2021 T1</t>
-  </si>
-  <si>
     <t>Varición MM</t>
   </si>
   <si>
@@ -173,6 +163,162 @@
   </si>
   <si>
     <t>Zacatecas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de precios hipotecarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017=100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 T1- 2021 T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodicidad Trimestral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noviembre 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUENTE: SHF; Sociedad Hipotecaía Federal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2019 T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2019 T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2019 T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2019 T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2020 T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2020 T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2020 T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2020 T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2021 T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2021 T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varición MM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varición YY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aguascalientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baja California Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campeche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coahuila de Zaragoza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiapas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chihuahua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciudad de México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanajuato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerrero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidalgo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michoacán de Ocampo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morelos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayarit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo León</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oaxaca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puebla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Querétaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quintana Roo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Potosí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sinaloa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamaulipas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tlaxcala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz de Ignacio de la Llave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yucatán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zacatecas</t>
   </si>
 </sst>
 </file>
@@ -183,7 +329,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,7 +338,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,15 +345,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -247,15 +385,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -267,8 +402,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -283,74 +416,55 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -360,7 +474,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -373,17 +486,17 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
+      <xdr:colOff>1447806</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>153926</xdr:rowOff>
     </xdr:to>
@@ -414,8 +527,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9526" y="0"/>
-          <a:ext cx="2781300" cy="1106426"/>
+          <a:off x="9525" y="0"/>
+          <a:ext cx="2743206" cy="1106426"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -689,1424 +802,1531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:L46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="true" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="41.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="19.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="19.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="19.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="19.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="17.0025" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="17.0025" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="17.0025" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="17.0025" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="17.0025" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="17.0025" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="12.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="12.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="E3" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="7" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="7" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>13</v>
+    <row r="14" ht="23.25" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="5">
+        <v>70</v>
+      </c>
+      <c r="B15" s="5" t="n">
         <v>113.4761311</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="5" t="n">
         <v>116.32761651359</v>
       </c>
-      <c r="D15" s="5">
-        <v>118.66730547510301</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="5" t="n">
+        <v>118.667305475103</v>
+      </c>
+      <c r="E15" s="5" t="n">
         <v>120.280161651302</v>
       </c>
-      <c r="F15" s="5">
-        <v>122.45061371316901</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="5" t="n">
+        <v>122.450613713169</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>123.896727960474</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="5" t="n">
         <v>125.422014293839</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="5" t="n">
         <v>127.471825967667</v>
       </c>
-      <c r="J15" s="6">
-        <v>130.31945554400801</v>
-      </c>
-      <c r="K15" s="6">
-        <v>2.2339285992994999E-2</v>
-      </c>
-      <c r="L15" s="6">
-        <v>6.4261350696625599E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" s="6" t="n">
+        <v>130.319455544008</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>132.581494916877</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0173576490434701</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0700968225664012</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5">
+        <v>71</v>
+      </c>
+      <c r="B16" s="5" t="n">
         <v>115.062151</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="5" t="n">
         <v>117.927593141492</v>
       </c>
-      <c r="D16" s="5">
-        <v>120.45345305668199</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="5" t="n">
+        <v>120.453453056682</v>
+      </c>
+      <c r="E16" s="5" t="n">
         <v>122.443974634794</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="5" t="n">
         <v>124.729864169942</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="5" t="n">
         <v>126.676336140826</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="5" t="n">
         <v>128.748198023019</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="5" t="n">
         <v>131.757750892198</v>
       </c>
-      <c r="J16" s="6">
-        <v>135.89022636393801</v>
-      </c>
-      <c r="K16" s="6">
-        <v>3.1364192571267498E-2</v>
-      </c>
-      <c r="L16" s="6">
-        <v>8.9476263509677495E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="6" t="n">
+        <v>135.890226363938</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>139.588824770927</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0272175454111283</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.101932918360902</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5">
+        <v>72</v>
+      </c>
+      <c r="B17" s="5" t="n">
         <v>114.9935983</v>
       </c>
-      <c r="C17" s="5">
-        <v>117.81020021905201</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17" s="5" t="n">
+        <v>117.810200219052</v>
+      </c>
+      <c r="D17" s="5" t="n">
         <v>120.228225519449</v>
       </c>
-      <c r="E17" s="5">
-        <v>122.13023131097199</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="E17" s="5" t="n">
+        <v>122.130231310972</v>
+      </c>
+      <c r="F17" s="5" t="n">
         <v>124.784514983278</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="5" t="n">
         <v>126.94590539346</v>
       </c>
-      <c r="H17" s="5">
-        <v>129.30425409516801</v>
-      </c>
-      <c r="I17" s="5">
-        <v>133.02046419435999</v>
-      </c>
-      <c r="J17" s="6">
-        <v>137.79869407004401</v>
-      </c>
-      <c r="K17" s="6">
-        <v>3.5921013391611703E-2</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0.104293221707116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H17" s="5" t="n">
+        <v>129.304254095168</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>133.02046419436</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>137.798694070044</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>142.189258397927</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0318621621018502</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.120077547654816</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5">
+        <v>73</v>
+      </c>
+      <c r="B18" s="5" t="n">
         <v>114.910179</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="5" t="n">
         <v>117.429608704426</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="5" t="n">
         <v>119.437715891038</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="5" t="n">
         <v>121.159250018013</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="5" t="n">
         <v>123.459275302062</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="5" t="n">
         <v>125.299891177794</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="5" t="n">
         <v>127.269271110213</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="5" t="n">
         <v>130.259998216768</v>
       </c>
-      <c r="J18" s="6">
-        <v>134.49608474185399</v>
-      </c>
-      <c r="K18" s="6">
-        <v>3.25202409264327E-2</v>
-      </c>
-      <c r="L18" s="6">
-        <v>8.9396356918415104E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J18" s="6" t="n">
+        <v>134.496084741854</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>138.350212849054</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0286560617329303</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.104152697568925</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="5">
-        <v>112.82084140000001</v>
-      </c>
-      <c r="C19" s="5">
+        <v>74</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>112.8208414</v>
+      </c>
+      <c r="C19" s="5" t="n">
         <v>115.398268287121</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="5" t="n">
         <v>117.249152458263</v>
       </c>
-      <c r="E19" s="5">
-        <v>118.61481163157301</v>
-      </c>
-      <c r="F19" s="5">
-        <v>120.80259436532999</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="E19" s="5" t="n">
+        <v>118.614811631573</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>120.80259436533</v>
+      </c>
+      <c r="G19" s="5" t="n">
         <v>122.509058898646</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="5" t="n">
         <v>124.170969093498</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="5" t="n">
         <v>126.533320242456</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="6" t="n">
         <v>130.31445357388</v>
       </c>
-      <c r="K19" s="6">
-        <v>2.9882510979549099E-2</v>
-      </c>
-      <c r="L19" s="6">
-        <v>7.8738865324235796E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="6" t="n">
+        <v>133.293433407726</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0228599341987581</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0880292005018348</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="5">
+        <v>75</v>
+      </c>
+      <c r="B20" s="5" t="n">
         <v>114.4608272</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="5" t="n">
         <v>117.150128822101</v>
       </c>
-      <c r="D20" s="5">
-        <v>119.05742178549799</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="5" t="n">
+        <v>119.057421785498</v>
+      </c>
+      <c r="E20" s="5" t="n">
         <v>120.632834577981</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="5" t="n">
         <v>122.602316776161</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="5" t="n">
         <v>124.35495129856</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="5" t="n">
         <v>126.255109221536</v>
       </c>
-      <c r="I20" s="5">
-        <v>128.43917674888701</v>
-      </c>
-      <c r="J20" s="6">
-        <v>132.08760117626599</v>
-      </c>
-      <c r="K20" s="6">
-        <v>2.8405853414274599E-2</v>
-      </c>
-      <c r="L20" s="6">
-        <v>7.7366273733820101E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I20" s="5" t="n">
+        <v>128.439176748887</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>132.087601176266</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>135.06631882789</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0225510768997086</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0861354326263488</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="5">
+        <v>76</v>
+      </c>
+      <c r="B21" s="5" t="n">
         <v>113.0760085</v>
       </c>
-      <c r="C21" s="5">
-        <v>115.28252353346601</v>
-      </c>
-      <c r="D21" s="5">
-        <v>117.09447827559799</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="C21" s="5" t="n">
+        <v>115.282523533466</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>117.094478275598</v>
+      </c>
+      <c r="E21" s="5" t="n">
         <v>118.629799098318</v>
       </c>
-      <c r="F21" s="5">
-        <v>120.59604926369499</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="5" t="n">
+        <v>120.596049263695</v>
+      </c>
+      <c r="G21" s="5" t="n">
         <v>122.044430329314</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="5" t="n">
         <v>123.546567897198</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="5" t="n">
         <v>125.765246111631</v>
       </c>
-      <c r="J21" s="6">
-        <v>129.27062219364001</v>
-      </c>
-      <c r="K21" s="6">
-        <v>2.7872374844299899E-2</v>
-      </c>
-      <c r="L21" s="6">
-        <v>7.1930821804761E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J21" s="6" t="n">
+        <v>129.27062219364</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>132.338242641941</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0237302211147856</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0843447938169</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="5">
+        <v>77</v>
+      </c>
+      <c r="B22" s="5" t="n">
         <v>112.4702186</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="5" t="n">
         <v>114.928589622461</v>
       </c>
-      <c r="D22" s="5">
-        <v>116.67663022347701</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="5" t="n">
+        <v>116.676630223477</v>
+      </c>
+      <c r="E22" s="5" t="n">
         <v>117.901982583438</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="5" t="n">
         <v>120.073669828406</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="5" t="n">
         <v>121.893695326908</v>
       </c>
-      <c r="H22" s="5">
-        <v>123.72727107385499</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="H22" s="5" t="n">
+        <v>123.727271073855</v>
+      </c>
+      <c r="I22" s="5" t="n">
         <v>126.309187744049</v>
       </c>
-      <c r="J22" s="6">
-        <v>130.76562275288799</v>
-      </c>
-      <c r="K22" s="6">
-        <v>3.5281954451876103E-2</v>
-      </c>
-      <c r="L22" s="6">
-        <v>8.9044941657580506E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J22" s="6" t="n">
+        <v>130.765622752888</v>
+      </c>
+      <c r="K22" s="6" t="n">
+        <v>134.642681836851</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0296489169121277</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.104591024792147</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="5">
+        <v>78</v>
+      </c>
+      <c r="B23" s="5" t="n">
         <v>118.7338836</v>
       </c>
-      <c r="C23" s="5">
-        <v>122.33077692181401</v>
-      </c>
-      <c r="D23" s="5">
-        <v>123.31814981635399</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="C23" s="5" t="n">
+        <v>122.330776921814</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>123.318149816354</v>
+      </c>
+      <c r="E23" s="5" t="n">
         <v>123.604152469309</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="5" t="n">
         <v>125.327603203162</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="5" t="n">
         <v>124.569354201473</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="5" t="n">
         <v>122.754539541255</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="5" t="n">
         <v>122.933230273783</v>
       </c>
-      <c r="J23" s="6">
-        <v>124.86668650488301</v>
-      </c>
-      <c r="K23" s="6">
-        <v>1.57276940237723E-2</v>
-      </c>
-      <c r="L23" s="6">
-        <v>-3.6776949889628699E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J23" s="6" t="n">
+        <v>124.866686504883</v>
+      </c>
+      <c r="K23" s="6" t="n">
+        <v>127.354344373983</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0199225104688168</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0223569447747611</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5">
+        <v>79</v>
+      </c>
+      <c r="B24" s="5" t="n">
         <v>111.0906651</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="5" t="n">
         <v>112.970672928871</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="5" t="n">
         <v>114.464153196147</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="5" t="n">
         <v>115.758136743949</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="5" t="n">
         <v>117.694629026417</v>
       </c>
-      <c r="G24" s="5">
-        <v>119.54417456611699</v>
-      </c>
-      <c r="H24" s="5">
+      <c r="G24" s="5" t="n">
+        <v>119.544174566117</v>
+      </c>
+      <c r="H24" s="5" t="n">
         <v>120.973295278653</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="5" t="n">
         <v>122.527660895224</v>
       </c>
-      <c r="J24" s="6">
-        <v>126.01219908674599</v>
-      </c>
-      <c r="K24" s="6">
-        <v>2.8438788156591701E-2</v>
-      </c>
-      <c r="L24" s="6">
-        <v>7.06707700184184E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J24" s="6" t="n">
+        <v>126.012199086746</v>
+      </c>
+      <c r="K24" s="6" t="n">
+        <v>128.70985975341</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0214079326145793</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0766719517748118</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="5">
-        <v>115.76182129999999</v>
-      </c>
-      <c r="C25" s="5">
+        <v>80</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>115.7618213</v>
+      </c>
+      <c r="C25" s="5" t="n">
         <v>118.479341062598</v>
       </c>
-      <c r="D25" s="5">
-        <v>120.54136958941901</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D25" s="5" t="n">
+        <v>120.541369589419</v>
+      </c>
+      <c r="E25" s="5" t="n">
         <v>122.266139254264</v>
       </c>
-      <c r="F25" s="5">
-        <v>124.23561068726001</v>
-      </c>
-      <c r="G25" s="5">
-        <v>125.93514135564899</v>
-      </c>
-      <c r="H25" s="5">
+      <c r="F25" s="5" t="n">
+        <v>124.23561068726</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>125.935141355649</v>
+      </c>
+      <c r="H25" s="5" t="n">
         <v>127.600300549948</v>
       </c>
-      <c r="I25" s="5">
-        <v>129.37695482356801</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="I25" s="5" t="n">
+        <v>129.376954823568</v>
+      </c>
+      <c r="J25" s="6" t="n">
         <v>132.533123149429</v>
       </c>
-      <c r="K25" s="6">
-        <v>2.4395135363674901E-2</v>
-      </c>
-      <c r="L25" s="6">
-        <v>6.6788519139302505E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="6" t="n">
+        <v>134.967048785503</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0183646591752749</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.071718722293306</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="5">
-        <v>112.33276119999999</v>
-      </c>
-      <c r="C26" s="5">
+        <v>81</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>112.3327612</v>
+      </c>
+      <c r="C26" s="5" t="n">
         <v>114.565750913017</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="5" t="n">
         <v>116.2550467529</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="5" t="n">
         <v>117.680616096764</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="5" t="n">
         <v>119.465209930342</v>
       </c>
-      <c r="G26" s="5">
-        <v>120.62943191818999</v>
-      </c>
-      <c r="H26" s="5">
-        <v>121.28045982093499</v>
-      </c>
-      <c r="I26" s="5">
-        <v>123.10934075532001</v>
-      </c>
-      <c r="J26" s="6">
-        <v>127.04523277800099</v>
-      </c>
-      <c r="K26" s="6">
-        <v>3.1970701804858101E-2</v>
-      </c>
-      <c r="L26" s="6">
-        <v>6.3449625644811394E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="n">
+        <v>120.62943191819</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>121.280459820935</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>123.10934075532</v>
+      </c>
+      <c r="J26" s="6" t="n">
+        <v>127.045232778001</v>
+      </c>
+      <c r="K26" s="6" t="n">
+        <v>130.660676899587</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.028457928271135</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0831575248418654</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="5">
+        <v>82</v>
+      </c>
+      <c r="B27" s="5" t="n">
         <v>111.9375967</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="5" t="n">
         <v>114.23718054506</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="5" t="n">
         <v>115.912735105376</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="5" t="n">
         <v>117.033293321269</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="5" t="n">
         <v>118.628878840299</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="5" t="n">
         <v>119.828007112164</v>
       </c>
-      <c r="H27" s="5">
-        <v>120.79354528615499</v>
-      </c>
-      <c r="I27" s="5">
-        <v>121.96091969842399</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="H27" s="5" t="n">
+        <v>120.793545286155</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>121.960919698424</v>
+      </c>
+      <c r="J27" s="6" t="n">
         <v>125.081959123941</v>
       </c>
-      <c r="K27" s="6">
-        <v>2.55904877827626E-2</v>
-      </c>
-      <c r="L27" s="6">
-        <v>5.4397212101526399E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="6" t="n">
+        <v>127.536047356306</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0196198416586464</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0643258652956396</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="5">
+        <v>83</v>
+      </c>
+      <c r="B28" s="5" t="n">
         <v>118.6877958</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="5" t="n">
         <v>122.325971712136</v>
       </c>
-      <c r="D28" s="5">
-        <v>125.05219174939801</v>
-      </c>
-      <c r="E28" s="5">
-        <v>127.20046822251101</v>
-      </c>
-      <c r="F28" s="5">
-        <v>129.80290302402099</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="D28" s="5" t="n">
+        <v>125.052191749398</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>127.200468222511</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>129.802903024021</v>
+      </c>
+      <c r="G28" s="5" t="n">
         <v>132.024211346474</v>
       </c>
-      <c r="H28" s="5">
-        <v>133.89659582370501</v>
-      </c>
-      <c r="I28" s="5">
+      <c r="H28" s="5" t="n">
+        <v>133.896595823705</v>
+      </c>
+      <c r="I28" s="5" t="n">
         <v>136.657161447536</v>
       </c>
-      <c r="J28" s="6">
-        <v>140.72327632345099</v>
-      </c>
-      <c r="K28" s="6">
-        <v>2.9754129478797998E-2</v>
-      </c>
-      <c r="L28" s="6">
-        <v>8.4130424243355401E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J28" s="6" t="n">
+        <v>140.723276323451</v>
+      </c>
+      <c r="K28" s="6" t="n">
+        <v>144.058068339466</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0236975154582815</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0911488648200387</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="5">
+        <v>84</v>
+      </c>
+      <c r="B29" s="5" t="n">
         <v>112.8515421</v>
       </c>
-      <c r="C29" s="5">
-        <v>115.17183995090799</v>
-      </c>
-      <c r="D29" s="5">
-        <v>116.75023286930499</v>
-      </c>
-      <c r="E29" s="5">
-        <v>118.23435373629999</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="C29" s="5" t="n">
+        <v>115.171839950908</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>116.750232869305</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>118.2343537363</v>
+      </c>
+      <c r="F29" s="5" t="n">
         <v>120.162509029872</v>
       </c>
-      <c r="G29" s="5">
-        <v>121.30424147975801</v>
-      </c>
-      <c r="H29" s="5">
-        <v>121.92434162740901</v>
-      </c>
-      <c r="I29" s="5">
-        <v>123.24043726990701</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="G29" s="5" t="n">
+        <v>121.304241479758</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>121.924341627409</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>123.240437269907</v>
+      </c>
+      <c r="J29" s="6" t="n">
         <v>126.456215215588</v>
       </c>
-      <c r="K29" s="6">
-        <v>2.60935291769386E-2</v>
-      </c>
-      <c r="L29" s="6">
-        <v>5.2376620932169403E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K29" s="6" t="n">
+        <v>129.219096534674</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.0218485213587623</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0652479662571135</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="5">
+        <v>85</v>
+      </c>
+      <c r="B30" s="5" t="n">
         <v>114.2189107</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="5" t="n">
         <v>116.657686750913</v>
       </c>
-      <c r="D30" s="5">
-        <v>118.66458411689401</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D30" s="5" t="n">
+        <v>118.664584116894</v>
+      </c>
+      <c r="E30" s="5" t="n">
         <v>120.423164889345</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="5" t="n">
         <v>122.150563107377</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="5" t="n">
         <v>123.750907724003</v>
       </c>
-      <c r="H30" s="5">
-        <v>125.18536384134499</v>
-      </c>
-      <c r="I30" s="5">
-        <v>126.56284991545201</v>
-      </c>
-      <c r="J30" s="6">
-        <v>131.11041546149499</v>
-      </c>
-      <c r="K30" s="6">
-        <v>3.5931282750672103E-2</v>
-      </c>
-      <c r="L30" s="6">
-        <v>7.3350888658956004E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H30" s="5" t="n">
+        <v>125.185363841345</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>126.562849915452</v>
+      </c>
+      <c r="J30" s="6" t="n">
+        <v>131.110415461495</v>
+      </c>
+      <c r="K30" s="6" t="n">
+        <v>135.279186329916</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0317958787160224</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.093157123595603</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="5">
-        <v>112.63325089999999</v>
-      </c>
-      <c r="C31" s="5">
+        <v>86</v>
+      </c>
+      <c r="B31" s="5" t="n">
+        <v>112.6332509</v>
+      </c>
+      <c r="C31" s="5" t="n">
         <v>115.05583809656</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="5" t="n">
         <v>116.762556644254</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="5" t="n">
         <v>118.192064605585</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="5" t="n">
         <v>120.167864662249</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="5" t="n">
         <v>121.189597050662</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="5" t="n">
         <v>121.621065699925</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="5" t="n">
         <v>123.15114250598</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="6" t="n">
         <v>127.188349619033</v>
       </c>
-      <c r="K31" s="6">
-        <v>3.2782538845362003E-2</v>
-      </c>
-      <c r="L31" s="6">
-        <v>5.84223159537385E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K31" s="6" t="n">
+        <v>131.16757554752</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.0312860882337569</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.082333622189426</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="5">
-        <v>115.79344690000001</v>
-      </c>
-      <c r="C32" s="5">
+        <v>87</v>
+      </c>
+      <c r="B32" s="5" t="n">
+        <v>115.7934469</v>
+      </c>
+      <c r="C32" s="5" t="n">
         <v>118.760908525495</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="5" t="n">
         <v>120.928871842573</v>
       </c>
-      <c r="E32" s="5">
-        <v>122.50082505006699</v>
-      </c>
-      <c r="F32" s="5">
+      <c r="E32" s="5" t="n">
+        <v>122.500825050067</v>
+      </c>
+      <c r="F32" s="5" t="n">
         <v>124.779483860415</v>
       </c>
-      <c r="G32" s="5">
-        <v>126.75769131907001</v>
-      </c>
-      <c r="H32" s="5">
+      <c r="G32" s="5" t="n">
+        <v>126.75769131907</v>
+      </c>
+      <c r="H32" s="5" t="n">
         <v>128.813973706876</v>
       </c>
-      <c r="I32" s="5">
-        <v>131.87829520789501</v>
-      </c>
-      <c r="J32" s="6">
-        <v>136.52642523356101</v>
-      </c>
-      <c r="K32" s="6">
-        <v>3.5245602912432401E-2</v>
-      </c>
-      <c r="L32" s="6">
-        <v>9.4141608938587806E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I32" s="5" t="n">
+        <v>131.878295207895</v>
+      </c>
+      <c r="J32" s="6" t="n">
+        <v>136.526425233561</v>
+      </c>
+      <c r="K32" s="6" t="n">
+        <v>140.681173627358</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0304318258292435</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.109843293636836</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="5">
+        <v>88</v>
+      </c>
+      <c r="B33" s="5" t="n">
         <v>115.9707959</v>
       </c>
-      <c r="C33" s="5">
-        <v>118.84804752791101</v>
-      </c>
-      <c r="D33" s="5">
+      <c r="C33" s="5" t="n">
+        <v>118.848047527911</v>
+      </c>
+      <c r="D33" s="5" t="n">
         <v>120.789015120169</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="5" t="n">
         <v>122.548104163562</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="5" t="n">
         <v>124.79123536959</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="5" t="n">
         <v>126.849356541642</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="5" t="n">
         <v>128.963617688456</v>
       </c>
-      <c r="I33" s="5">
-        <v>131.26107527640099</v>
-      </c>
-      <c r="J33" s="6">
+      <c r="I33" s="5" t="n">
+        <v>131.261075276401</v>
+      </c>
+      <c r="J33" s="6" t="n">
         <v>134.980127350945</v>
       </c>
-      <c r="K33" s="6">
-        <v>2.8333244007887799E-2</v>
-      </c>
-      <c r="L33" s="6">
-        <v>8.1647496726664298E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K33" s="6" t="n">
+        <v>138.019387056454</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.0225163493705041</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.08805744719048</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="5">
+        <v>89</v>
+      </c>
+      <c r="B34" s="5" t="n">
         <v>112.7962031</v>
       </c>
-      <c r="C34" s="5">
-        <v>115.07081972954801</v>
-      </c>
-      <c r="D34" s="5">
+      <c r="C34" s="5" t="n">
+        <v>115.070819729548</v>
+      </c>
+      <c r="D34" s="5" t="n">
         <v>116.872128844318</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="5" t="n">
         <v>118.226392356974</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="5" t="n">
         <v>120.164588008221</v>
       </c>
-      <c r="G34" s="5">
-        <v>121.71662274840401</v>
-      </c>
-      <c r="H34" s="5">
-        <v>123.18554802560099</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="G34" s="5" t="n">
+        <v>121.716622748404</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>123.185548025601</v>
+      </c>
+      <c r="I34" s="5" t="n">
         <v>125.401890177396</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="6" t="n">
         <v>128.931615775761</v>
       </c>
-      <c r="K34" s="6">
-        <v>2.8147307774801299E-2</v>
-      </c>
-      <c r="L34" s="6">
-        <v>7.2958497281580201E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K34" s="6" t="n">
+        <v>131.835309854676</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0225211951424322</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0831331569820826</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="5">
+        <v>90</v>
+      </c>
+      <c r="B35" s="5" t="n">
         <v>114.9482247</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="5" t="n">
         <v>117.456507325003</v>
       </c>
-      <c r="D35" s="5">
-        <v>119.71032545939499</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="D35" s="5" t="n">
+        <v>119.710325459395</v>
+      </c>
+      <c r="E35" s="5" t="n">
         <v>121.514538969508</v>
       </c>
-      <c r="F35" s="5">
-        <v>123.70128371815299</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="5" t="n">
+        <v>123.701283718153</v>
+      </c>
+      <c r="G35" s="5" t="n">
         <v>125.655375837292</v>
       </c>
-      <c r="H35" s="5">
-        <v>127.39427547645199</v>
-      </c>
-      <c r="I35" s="5">
+      <c r="H35" s="5" t="n">
+        <v>127.394275476452</v>
+      </c>
+      <c r="I35" s="5" t="n">
         <v>129.925022586523</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="6" t="n">
         <v>133.728446590831</v>
       </c>
-      <c r="K35" s="6">
-        <v>2.9273991480548898E-2</v>
-      </c>
-      <c r="L35" s="6">
-        <v>8.1059489208894303E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K35" s="6" t="n">
+        <v>137.011079123541</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0245470026489867</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0903718063041985</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="5">
+        <v>91</v>
+      </c>
+      <c r="B36" s="5" t="n">
         <v>113.3204899</v>
       </c>
-      <c r="C36" s="5">
-        <v>115.72332958268299</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="C36" s="5" t="n">
+        <v>115.723329582683</v>
+      </c>
+      <c r="D36" s="5" t="n">
         <v>117.577499530683</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="5" t="n">
         <v>119.357213683935</v>
       </c>
-      <c r="F36" s="5">
-        <v>121.43456887579499</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="5" t="n">
+        <v>121.434568875795</v>
+      </c>
+      <c r="G36" s="5" t="n">
         <v>122.765192096927</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="5" t="n">
         <v>123.60527833594</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="5" t="n">
         <v>125.217662548037</v>
       </c>
-      <c r="J36" s="6">
-        <v>128.67841225356401</v>
-      </c>
-      <c r="K36" s="6">
-        <v>2.76378718074166E-2</v>
-      </c>
-      <c r="L36" s="6">
-        <v>5.9652234489983698E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J36" s="6" t="n">
+        <v>128.678412253564</v>
+      </c>
+      <c r="K36" s="6" t="n">
+        <v>131.6845551995</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.0233616726635726</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0726538438968181</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="5">
+        <v>92</v>
+      </c>
+      <c r="B37" s="5" t="n">
         <v>115.6049783</v>
       </c>
-      <c r="C37" s="5">
-        <v>119.04045985965899</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="C37" s="5" t="n">
+        <v>119.040459859659</v>
+      </c>
+      <c r="D37" s="5" t="n">
         <v>121.587595672856</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="5" t="n">
         <v>122.859408619351</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="5" t="n">
         <v>125.230795733481</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="5" t="n">
         <v>126.993210135979</v>
       </c>
-      <c r="H37" s="5">
-        <v>129.18384436969399</v>
-      </c>
-      <c r="I37" s="5">
-        <v>133.20157426898001</v>
-      </c>
-      <c r="J37" s="6">
-        <v>138.07856629345901</v>
-      </c>
-      <c r="K37" s="6">
-        <v>3.6613621507435502E-2</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0.102592740745023</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H37" s="5" t="n">
+        <v>129.183844369694</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>133.20157426898</v>
+      </c>
+      <c r="J37" s="6" t="n">
+        <v>138.078566293459</v>
+      </c>
+      <c r="K37" s="6" t="n">
+        <v>142.513163721898</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0321164793890902</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.122210892765849</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="5">
-        <v>115.31043080000001</v>
-      </c>
-      <c r="C38" s="5">
+        <v>93</v>
+      </c>
+      <c r="B38" s="5" t="n">
+        <v>115.3104308</v>
+      </c>
+      <c r="C38" s="5" t="n">
         <v>117.775406240398</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="5" t="n">
         <v>119.552746268524</v>
       </c>
-      <c r="E38" s="5">
-        <v>121.09942998835599</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="E38" s="5" t="n">
+        <v>121.099429988356</v>
+      </c>
+      <c r="F38" s="5" t="n">
         <v>123.437167055621</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="5" t="n">
         <v>125.86715918729</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="5" t="n">
         <v>128.245874000871</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="5" t="n">
         <v>130.814543780468</v>
       </c>
-      <c r="J38" s="6">
+      <c r="J38" s="6" t="n">
         <v>134.558370979085</v>
       </c>
-      <c r="K38" s="6">
-        <v>2.86193498858953E-2</v>
-      </c>
-      <c r="L38" s="6">
-        <v>9.0096072266894894E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K38" s="6" t="n">
+        <v>137.50148530014</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.021872398570524</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0924333733117639</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="5">
-        <v>115.14567030000001</v>
-      </c>
-      <c r="C39" s="5">
+        <v>94</v>
+      </c>
+      <c r="B39" s="5" t="n">
+        <v>115.1456703</v>
+      </c>
+      <c r="C39" s="5" t="n">
         <v>118.319294933565</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="5" t="n">
         <v>120.64807752509</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="5" t="n">
         <v>122.597176028935</v>
       </c>
-      <c r="F39" s="5">
-        <v>124.95221498017899</v>
-      </c>
-      <c r="G39" s="5">
+      <c r="F39" s="5" t="n">
+        <v>124.952214980179</v>
+      </c>
+      <c r="G39" s="5" t="n">
         <v>127.077108593925</v>
       </c>
-      <c r="H39" s="5">
-        <v>129.44267682034999</v>
-      </c>
-      <c r="I39" s="5">
-        <v>132.40728128607299</v>
-      </c>
-      <c r="J39" s="6">
+      <c r="H39" s="5" t="n">
+        <v>129.44267682035</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>132.407281286073</v>
+      </c>
+      <c r="J39" s="6" t="n">
         <v>136.616151864464</v>
       </c>
-      <c r="K39" s="6">
-        <v>3.1787304576532401E-2</v>
-      </c>
-      <c r="L39" s="6">
-        <v>9.3347179848994696E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K39" s="6" t="n">
+        <v>140.11413682068</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0256044758140042</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.102591476710529</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="5">
+        <v>95</v>
+      </c>
+      <c r="B40" s="5" t="n">
         <v>111.0736009</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="5" t="n">
         <v>113.690916268405</v>
       </c>
-      <c r="D40" s="5">
-        <v>115.67668959981199</v>
-      </c>
-      <c r="E40" s="5">
-        <v>117.25715351306501</v>
-      </c>
-      <c r="F40" s="5">
+      <c r="D40" s="5" t="n">
+        <v>115.676689599812</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>117.257153513065</v>
+      </c>
+      <c r="F40" s="5" t="n">
         <v>119.705316977804</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="5" t="n">
         <v>121.790550472798</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="5" t="n">
         <v>123.678301425141</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="5" t="n">
         <v>126.1636346657</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="6" t="n">
         <v>129.807891199994</v>
       </c>
-      <c r="K40" s="6">
-        <v>2.8885158103999699E-2</v>
-      </c>
-      <c r="L40" s="6">
-        <v>8.4395367534620305E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K40" s="6" t="n">
+        <v>132.408398289965</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0200335054050329</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0871812121379523</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="5">
+        <v>96</v>
+      </c>
+      <c r="B41" s="5" t="n">
         <v>112.8211779</v>
       </c>
-      <c r="C41" s="5">
-        <v>114.68736041564399</v>
-      </c>
-      <c r="D41" s="5">
+      <c r="C41" s="5" t="n">
+        <v>114.687360415644</v>
+      </c>
+      <c r="D41" s="5" t="n">
         <v>116.302211498361</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="5" t="n">
         <v>117.896044693115</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="5" t="n">
         <v>119.784709680552</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="5" t="n">
         <v>121.285842757392</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="5" t="n">
         <v>122.702323492529</v>
       </c>
-      <c r="I41" s="5">
-        <v>124.42202635569301</v>
-      </c>
-      <c r="J41" s="6">
+      <c r="I41" s="5" t="n">
+        <v>124.422026355693</v>
+      </c>
+      <c r="J41" s="6" t="n">
         <v>127.384171926299</v>
       </c>
-      <c r="K41" s="6">
-        <v>2.3807244242574299E-2</v>
-      </c>
-      <c r="L41" s="6">
-        <v>6.3442673660216303E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K41" s="6" t="n">
+        <v>129.67934888405</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.018017756233317</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0692043352780054</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="5">
+        <v>97</v>
+      </c>
+      <c r="B42" s="5" t="n">
         <v>111.2127265</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="5" t="n">
         <v>113.641398715609</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="5" t="n">
         <v>115.400187506846</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="5" t="n">
         <v>116.559667288813</v>
       </c>
-      <c r="F42" s="5">
-        <v>118.51585494157599</v>
-      </c>
-      <c r="G42" s="5">
-        <v>120.10270227037699</v>
-      </c>
-      <c r="H42" s="5">
-        <v>121.76686639024101</v>
-      </c>
-      <c r="I42" s="5">
+      <c r="F42" s="5" t="n">
+        <v>118.515854941576</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>120.102702270377</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>121.766866390241</v>
+      </c>
+      <c r="I42" s="5" t="n">
         <v>124.213475708148</v>
       </c>
-      <c r="J42" s="6">
-        <v>127.88389350417999</v>
-      </c>
-      <c r="K42" s="6">
-        <v>2.9549272130956299E-2</v>
-      </c>
-      <c r="L42" s="6">
-        <v>7.9044601814855203E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J42" s="6" t="n">
+        <v>127.88389350418</v>
+      </c>
+      <c r="K42" s="6" t="n">
+        <v>130.61533632128</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0213587711654302</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0875303706925497</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="5">
+        <v>98</v>
+      </c>
+      <c r="B43" s="5" t="n">
         <v>111.1185488</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="5" t="n">
         <v>112.830872170655</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="5" t="n">
         <v>114.070954759023</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="5" t="n">
         <v>114.587919520683</v>
       </c>
-      <c r="F43" s="5">
-        <v>116.27394234742501</v>
-      </c>
-      <c r="G43" s="5">
-        <v>117.87015029598901</v>
-      </c>
-      <c r="H43" s="5">
-        <v>119.15355547626299</v>
-      </c>
-      <c r="I43" s="5">
+      <c r="F43" s="5" t="n">
+        <v>116.273942347425</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>117.870150295989</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>119.153555476263</v>
+      </c>
+      <c r="I43" s="5" t="n">
         <v>121.101885345836</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="6" t="n">
         <v>124.550348003632</v>
       </c>
-      <c r="K43" s="6">
-        <v>2.8475714048117998E-2</v>
-      </c>
-      <c r="L43" s="6">
-        <v>7.1180227393315795E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K43" s="6" t="n">
+        <v>127.106283299442</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.0205213019214965</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0783585409898921</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="5">
+        <v>99</v>
+      </c>
+      <c r="B44" s="5" t="n">
         <v>110.7225703</v>
       </c>
-      <c r="C44" s="5">
-        <v>112.70106010966001</v>
-      </c>
-      <c r="D44" s="5">
+      <c r="C44" s="5" t="n">
+        <v>112.70106010966</v>
+      </c>
+      <c r="D44" s="5" t="n">
         <v>114.004184161222</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="5" t="n">
         <v>114.890350306928</v>
       </c>
-      <c r="F44" s="5">
-        <v>116.71642858588299</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="F44" s="5" t="n">
+        <v>116.716428585883</v>
+      </c>
+      <c r="G44" s="5" t="n">
         <v>118.421215212262</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="5" t="n">
         <v>119.843138465574</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="5" t="n">
         <v>121.671703107083</v>
       </c>
-      <c r="J44" s="6">
-        <v>126.24080499016701</v>
-      </c>
-      <c r="K44" s="6">
-        <v>3.7552707543369701E-2</v>
-      </c>
-      <c r="L44" s="6">
-        <v>8.1602705974469697E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J44" s="6" t="n">
+        <v>126.240804990167</v>
+      </c>
+      <c r="K44" s="6" t="n">
+        <v>130.031530307968</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0300277340444419</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0980425262052522</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="5">
-        <v>114.29307230000001</v>
-      </c>
-      <c r="C45" s="5">
+        <v>100</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>114.2930723</v>
+      </c>
+      <c r="C45" s="5" t="n">
         <v>117.218794186</v>
       </c>
-      <c r="D45" s="5">
-        <v>119.41361726271199</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="D45" s="5" t="n">
+        <v>119.413617262712</v>
+      </c>
+      <c r="E45" s="5" t="n">
         <v>120.990141398164</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="5" t="n">
         <v>123.289159233418</v>
       </c>
-      <c r="G45" s="5">
-        <v>124.88401524897699</v>
-      </c>
-      <c r="H45" s="5">
-        <v>126.56968189811199</v>
-      </c>
-      <c r="I45" s="5">
+      <c r="G45" s="5" t="n">
+        <v>124.884015248977</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>126.569681898112</v>
+      </c>
+      <c r="I45" s="5" t="n">
         <v>129.088100747467</v>
       </c>
-      <c r="J45" s="6">
-        <v>132.55911033663699</v>
-      </c>
-      <c r="K45" s="6">
-        <v>2.6888687408611601E-2</v>
-      </c>
-      <c r="L45" s="6">
-        <v>7.5188695915012302E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J45" s="6" t="n">
+        <v>132.559110336637</v>
+      </c>
+      <c r="K45" s="6" t="n">
+        <v>135.575186177554</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.0227526862035934</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0856088019532555</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="5">
+        <v>101</v>
+      </c>
+      <c r="B46" s="5" t="n">
         <v>113.6058152</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="5" t="n">
         <v>116.239503754955</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="5" t="n">
         <v>118.060588526926</v>
       </c>
-      <c r="E46" s="5">
-        <v>119.09770849697701</v>
-      </c>
-      <c r="F46" s="5">
+      <c r="E46" s="5" t="n">
+        <v>119.097708496977</v>
+      </c>
+      <c r="F46" s="5" t="n">
         <v>121.077999916397</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="5" t="n">
         <v>122.203015111417</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="5" t="n">
         <v>123.439530494606</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="5" t="n">
         <v>125.325035914412</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="6" t="n">
         <v>127.893644582085</v>
       </c>
-      <c r="K46" s="6">
-        <v>2.04955749578015E-2</v>
-      </c>
-      <c r="L46" s="6">
-        <v>5.62913549149648E-2</v>
+      <c r="K46" s="6" t="n">
+        <v>129.667251770325</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0138678289608181</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0610806259739385</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tabuladoSHF.xlsx
+++ b/tabuladoSHF.xlsx
@@ -168,13 +168,13 @@
     <t xml:space="preserve">2017=100</t>
   </si>
   <si>
-    <t xml:space="preserve">2019 T1- 2021 T3</t>
+    <t xml:space="preserve">2019 T1- 2021 T4</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Trimestral</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: febrero 2022</t>
+    <t xml:space="preserve">Próxima actualización: mayo 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: SHF; Sociedad Hipotecaía Federal</t>
@@ -183,9 +183,6 @@
     <t xml:space="preserve">Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice SHF 2019 T4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Índice SHF 2020 T1</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t xml:space="preserve">Índice SHF 2021 T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2021 T4</t>
   </si>
   <si>
     <t xml:space="preserve">Varición MM</t>
@@ -887,34 +887,34 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>120.280161651302</v>
+        <v>122.450613713169</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>122.450613713169</v>
+        <v>123.896727960474</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>123.896727960474</v>
+        <v>125.422014293839</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>125.422014293839</v>
+        <v>127.471825967667</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>127.471825967667</v>
+        <v>130.319455544008</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>130.319455544008</v>
+        <v>132.581494916877</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>132.581494916877</v>
+        <v>133.9076921</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>133.9076921</v>
+        <v>135.032620163121</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0100028830113468</v>
+        <v>0.00840077254323024</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0676570046649125</v>
+        <v>0.0593134532910182</v>
       </c>
     </row>
     <row r="16">
@@ -922,34 +922,34 @@
         <v>67</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>122.443974634794</v>
+        <v>124.729864169942</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>124.729864169942</v>
+        <v>126.676336140826</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>126.676336140826</v>
+        <v>128.748198023019</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>128.748198023019</v>
+        <v>131.757750892198</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>131.757750892198</v>
+        <v>135.890226363938</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>135.890226363938</v>
+        <v>139.588824770927</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>139.588824770927</v>
+        <v>142.5252076</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>142.5252076</v>
+        <v>145.154708223373</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0210359449181676</v>
+        <v>0.0184493723436823</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.107007397295904</v>
+        <v>0.101678703836833</v>
       </c>
     </row>
     <row r="17">
@@ -957,34 +957,34 @@
         <v>68</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>122.130231310972</v>
+        <v>124.784514983278</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>124.784514983278</v>
+        <v>126.94590539346</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>126.94590539346</v>
+        <v>129.304254095168</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>129.304254095168</v>
+        <v>133.02046419436</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>133.02046419436</v>
+        <v>137.798694070044</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>137.798694070044</v>
+        <v>142.189258397927</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>142.189258397927</v>
+        <v>146.0622012</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>146.0622012</v>
+        <v>149.653913604331</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0272379422025979</v>
+        <v>0.0245902935518063</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.129600895361866</v>
+        <v>0.125044289318277</v>
       </c>
     </row>
     <row r="18">
@@ -992,34 +992,34 @@
         <v>69</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>121.159250018013</v>
+        <v>123.459275302062</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>123.459275302062</v>
+        <v>125.299891177794</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>125.299891177794</v>
+        <v>127.269271110213</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>127.269271110213</v>
+        <v>130.259998216768</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>130.259998216768</v>
+        <v>134.496084741854</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>134.496084741854</v>
+        <v>138.350212849054</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>138.350212849054</v>
+        <v>141.3854067</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>141.3854067</v>
+        <v>144.117084630264</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0219384834214713</v>
+        <v>0.0193207912614364</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.11091550589272</v>
+        <v>0.106380213443855</v>
       </c>
     </row>
     <row r="19">
@@ -1027,34 +1027,34 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>118.614811631573</v>
+        <v>120.80259436533</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>120.80259436533</v>
+        <v>122.509058898646</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>122.509058898646</v>
+        <v>124.170969093498</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>124.170969093498</v>
+        <v>126.533320242456</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>126.533320242456</v>
+        <v>130.31445357388</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>130.31445357388</v>
+        <v>133.293433407726</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>133.293433407726</v>
+        <v>135.2805507</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>135.2805507</v>
+        <v>136.922983498706</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0149078408551129</v>
+        <v>0.0121409381482214</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.089470040280806</v>
+        <v>0.0821100974537134</v>
       </c>
     </row>
     <row r="20">
@@ -1062,34 +1062,34 @@
         <v>71</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>120.632834577981</v>
+        <v>122.602316776161</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>122.602316776161</v>
+        <v>124.35495129856</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>124.35495129856</v>
+        <v>126.255109221536</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>126.255109221536</v>
+        <v>128.439176748887</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>128.439176748887</v>
+        <v>132.087601176266</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>132.087601176266</v>
+        <v>135.06631882789</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>135.06631882789</v>
+        <v>137.1025128</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>137.1025128</v>
+        <v>139.244535455207</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0150755124577331</v>
+        <v>0.0156235112797072</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0859165513803515</v>
+        <v>0.084128215236428</v>
       </c>
     </row>
     <row r="21">
@@ -1097,34 +1097,34 @@
         <v>72</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>118.629799098318</v>
+        <v>120.596049263695</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>120.596049263695</v>
+        <v>122.044430329314</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>122.044430329314</v>
+        <v>123.546567897198</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>123.546567897198</v>
+        <v>125.765246111631</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>125.765246111631</v>
+        <v>129.27062219364</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>129.27062219364</v>
+        <v>132.338242641941</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>132.338242641941</v>
+        <v>134.3841233</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>134.3841233</v>
+        <v>136.235134426532</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0154594818339426</v>
+        <v>0.0137740313444601</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0877204084845145</v>
+        <v>0.0832494559395827</v>
       </c>
     </row>
     <row r="22">
@@ -1132,34 +1132,34 @@
         <v>73</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>117.901982583438</v>
+        <v>120.073669828406</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>120.073669828406</v>
+        <v>121.893695326908</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>121.893695326908</v>
+        <v>123.727271073855</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>123.727271073855</v>
+        <v>126.309187744049</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>126.309187744049</v>
+        <v>130.765622752888</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>130.765622752888</v>
+        <v>134.642681836851</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>134.642681836851</v>
+        <v>137.6203439</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>137.6203439</v>
+        <v>140.225599968451</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.0221152908017463</v>
+        <v>0.0189307481337504</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.112287878861015</v>
+        <v>0.11017735505197</v>
       </c>
     </row>
     <row r="23">
@@ -1167,34 +1167,34 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>123.604152469309</v>
+        <v>125.327603203162</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>125.327603203162</v>
+        <v>124.569354201473</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>124.569354201473</v>
+        <v>122.754539541255</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>122.754539541255</v>
+        <v>122.933230273783</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>122.933230273783</v>
+        <v>124.866686504883</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>124.866686504883</v>
+        <v>127.354344373983</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>127.354344373983</v>
+        <v>130.1662495</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>130.1662495</v>
+        <v>131.653781705953</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.022079381271515</v>
+        <v>0.0114279408961</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0603782962849539</v>
+        <v>0.0709372999696549</v>
       </c>
     </row>
     <row r="24">
@@ -1202,34 +1202,34 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>115.758136743949</v>
+        <v>117.694629026417</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>117.694629026417</v>
+        <v>119.544174566117</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>119.544174566117</v>
+        <v>120.973295278653</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>120.973295278653</v>
+        <v>122.527660895224</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>122.527660895224</v>
+        <v>126.012199086746</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>126.012199086746</v>
+        <v>128.70985975341</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>128.70985975341</v>
+        <v>130.300997</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>130.300997</v>
+        <v>131.594426255309</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0123622016964231</v>
+        <v>0.00992647243757472</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.077105461166957</v>
+        <v>0.0739977021828417</v>
       </c>
     </row>
     <row r="25">
@@ -1237,34 +1237,34 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>122.266139254264</v>
+        <v>124.23561068726</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>124.23561068726</v>
+        <v>125.935141355649</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>125.935141355649</v>
+        <v>127.600300549948</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>127.600300549948</v>
+        <v>129.376954823568</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>129.376954823568</v>
+        <v>132.533123149429</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>132.533123149429</v>
+        <v>134.967048785503</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>134.967048785503</v>
+        <v>136.4289089</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>136.4289089</v>
+        <v>138.013556440271</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0108312371623407</v>
+        <v>0.0116151888411899</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.0691895576421164</v>
+        <v>0.0667553323424621</v>
       </c>
     </row>
     <row r="26">
@@ -1272,34 +1272,34 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>117.680616096764</v>
+        <v>119.465209930342</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>119.465209930342</v>
+        <v>120.62943191819</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>120.62943191819</v>
+        <v>121.280459820935</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>121.280459820935</v>
+        <v>123.10934075532</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>123.10934075532</v>
+        <v>127.045232778001</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>127.045232778001</v>
+        <v>130.660676899587</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>130.660676899587</v>
+        <v>133.532633</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>133.532633</v>
+        <v>136.174812105819</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.021980263446975</v>
+        <v>0.019786767073027</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.101023472347935</v>
+        <v>0.106129001019237</v>
       </c>
     </row>
     <row r="27">
@@ -1307,34 +1307,34 @@
         <v>78</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>117.033293321269</v>
+        <v>118.628878840299</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>118.628878840299</v>
+        <v>119.828007112164</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>119.828007112164</v>
+        <v>120.793545286155</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>120.793545286155</v>
+        <v>121.960919698424</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>121.960919698424</v>
+        <v>125.081959123941</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>125.081959123941</v>
+        <v>127.536047356306</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>127.536047356306</v>
+        <v>128.7453584</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>128.7453584</v>
+        <v>129.872688150627</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.00948211167557567</v>
+        <v>0.00875627490293285</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.065829784985675</v>
+        <v>0.0648713413425108</v>
       </c>
     </row>
     <row r="28">
@@ -1342,34 +1342,34 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>127.200468222511</v>
+        <v>129.802903024021</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>129.802903024021</v>
+        <v>132.024211346474</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>132.024211346474</v>
+        <v>133.896595823705</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>133.896595823705</v>
+        <v>136.657161447536</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>136.657161447536</v>
+        <v>140.723276323451</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>140.723276323451</v>
+        <v>144.058068339466</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>144.058068339466</v>
+        <v>146.9169976</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>146.9169976</v>
+        <v>148.62402727738</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.0198456726061125</v>
+        <v>0.0116190073665106</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.097242216623926</v>
+        <v>0.0875685233257111</v>
       </c>
     </row>
     <row r="29">
@@ -1377,34 +1377,34 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>118.2343537363</v>
+        <v>120.162509029872</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>120.162509029872</v>
+        <v>121.304241479758</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>121.304241479758</v>
+        <v>121.924341627409</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>121.924341627409</v>
+        <v>123.240437269907</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>123.240437269907</v>
+        <v>126.456215215588</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>126.456215215588</v>
+        <v>129.219096534674</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>129.219096534674</v>
+        <v>130.8213661</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>130.8213661</v>
+        <v>132.281255443779</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0123996344835615</v>
+        <v>0.0111594106322286</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0729716835361687</v>
+        <v>0.0733591861092788</v>
       </c>
     </row>
     <row r="30">
@@ -1412,34 +1412,34 @@
         <v>81</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>120.423164889345</v>
+        <v>122.150563107377</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>122.150563107377</v>
+        <v>123.750907724003</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>123.750907724003</v>
+        <v>125.185363841345</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>125.185363841345</v>
+        <v>126.562849915452</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>126.562849915452</v>
+        <v>131.110415461495</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>131.110415461495</v>
+        <v>135.279186329916</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>135.279186329916</v>
+        <v>138.3588566</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>138.3588566</v>
+        <v>141.450272220433</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0227652926783086</v>
+        <v>0.0223434603060531</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.105231892566535</v>
+        <v>0.117628690527483</v>
       </c>
     </row>
     <row r="31">
@@ -1447,34 +1447,34 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>118.192064605585</v>
+        <v>120.167864662249</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>120.167864662249</v>
+        <v>121.189597050662</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>121.189597050662</v>
+        <v>121.621065699925</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>121.621065699925</v>
+        <v>123.15114250598</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>123.15114250598</v>
+        <v>127.188349619033</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>127.188349619033</v>
+        <v>131.16757554752</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>131.16757554752</v>
+        <v>134.4622597</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>134.4622597</v>
+        <v>137.560077395189</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>0.0251181295280281</v>
+        <v>0.0230385663761756</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>0.105583633280751</v>
+        <v>0.117002039899949</v>
       </c>
     </row>
     <row r="32">
@@ -1482,34 +1482,34 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>122.500825050067</v>
+        <v>124.779483860415</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>124.779483860415</v>
+        <v>126.75769131907</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>126.75769131907</v>
+        <v>128.813973706876</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>128.813973706876</v>
+        <v>131.878295207895</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>131.878295207895</v>
+        <v>136.526425233561</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>136.526425233561</v>
+        <v>140.681173627358</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>140.681173627358</v>
+        <v>144.4684947</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>144.4684947</v>
+        <v>148.2425336478</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>0.0269213070589958</v>
+        <v>0.0261236123186379</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>0.121528127288013</v>
+        <v>0.124085911287435</v>
       </c>
     </row>
     <row r="33">
@@ -1517,34 +1517,34 @@
         <v>84</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>122.548104163562</v>
+        <v>124.79123536959</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>124.79123536959</v>
+        <v>126.849356541642</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>126.849356541642</v>
+        <v>128.963617688456</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>128.963617688456</v>
+        <v>131.261075276401</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>131.261075276401</v>
+        <v>134.980127350945</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>134.980127350945</v>
+        <v>138.019387056454</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>138.019387056454</v>
+        <v>140.1255917</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>140.1255917</v>
+        <v>142.24963327562</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>0.0152602086450688</v>
+        <v>0.015158127433049</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>0.0865513406929119</v>
+        <v>0.0837152825091523</v>
       </c>
     </row>
     <row r="34">
@@ -1552,34 +1552,34 @@
         <v>85</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>118.226392356974</v>
+        <v>120.164588008221</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>120.164588008221</v>
+        <v>121.716622748404</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>121.716622748404</v>
+        <v>123.185548025601</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>123.185548025601</v>
+        <v>125.401890177396</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>125.401890177396</v>
+        <v>128.931615775761</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>128.931615775761</v>
+        <v>131.835309854676</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>131.835309854676</v>
+        <v>133.4389325</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>133.4389325</v>
+        <v>134.57111259814</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>0.0121638326415865</v>
+        <v>0.00848463096135754</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.0832352872454494</v>
+        <v>0.073118693887094</v>
       </c>
     </row>
     <row r="35">
@@ -1587,34 +1587,34 @@
         <v>86</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>121.514538969508</v>
+        <v>123.701283718153</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>123.701283718153</v>
+        <v>125.655375837292</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>125.655375837292</v>
+        <v>127.394275476452</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>127.394275476452</v>
+        <v>129.925022586523</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>129.925022586523</v>
+        <v>133.728446590831</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>133.728446590831</v>
+        <v>137.011079123541</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>137.011079123541</v>
+        <v>139.50729</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>139.50729</v>
+        <v>141.712071761783</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.0182190439811674</v>
+        <v>0.0158040612915855</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.0950828793385385</v>
+        <v>0.0907219328548545</v>
       </c>
     </row>
     <row r="36">
@@ -1622,34 +1622,34 @@
         <v>87</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>119.357213683935</v>
+        <v>121.434568875795</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>121.434568875795</v>
+        <v>122.765192096927</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>122.765192096927</v>
+        <v>123.60527833594</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>123.60527833594</v>
+        <v>125.217662548037</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>125.217662548037</v>
+        <v>128.678412253564</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>128.678412253564</v>
+        <v>131.6845551995</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>131.6845551995</v>
+        <v>133.5797203</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>133.5797203</v>
+        <v>135.370629162622</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.0143917037015375</v>
+        <v>0.0134070415673868</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.0806959225232355</v>
+        <v>0.0810825438519112</v>
       </c>
     </row>
     <row r="37">
@@ -1657,34 +1657,34 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>122.859408619351</v>
+        <v>125.230795733481</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>125.230795733481</v>
+        <v>126.993210135979</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>126.993210135979</v>
+        <v>129.183844369694</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>129.183844369694</v>
+        <v>133.20157426898</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>133.20157426898</v>
+        <v>138.078566293459</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>138.078566293459</v>
+        <v>142.513163721898</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>142.513163721898</v>
+        <v>146.5098633</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>146.5098633</v>
+        <v>149.930482667687</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>0.0280444239235418</v>
+        <v>0.0233473657721104</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>0.134119084432284</v>
+        <v>0.125590921057176</v>
       </c>
     </row>
     <row r="38">
@@ -1692,34 +1692,34 @@
         <v>89</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>121.099429988356</v>
+        <v>123.437167055621</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>123.437167055621</v>
+        <v>125.86715918729</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>125.86715918729</v>
+        <v>128.245874000871</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>128.245874000871</v>
+        <v>130.814543780468</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>130.814543780468</v>
+        <v>134.558370979085</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>134.558370979085</v>
+        <v>137.50148530014</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>137.50148530014</v>
+        <v>139.5677396</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>139.5677396</v>
+        <v>141.709522347875</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>0.0150271416730501</v>
+        <v>0.0153458295879358</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>0.0882824939775615</v>
+        <v>0.08328568255905</v>
       </c>
     </row>
     <row r="39">
@@ -1727,34 +1727,34 @@
         <v>90</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>122.597176028935</v>
+        <v>124.952214980179</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>124.952214980179</v>
+        <v>127.077108593925</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>127.077108593925</v>
+        <v>129.44267682035</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>129.44267682035</v>
+        <v>132.407281286073</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>132.407281286073</v>
+        <v>136.616151864464</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>136.616151864464</v>
+        <v>140.11413682068</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>140.11413682068</v>
+        <v>142.9481002</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>142.9481002</v>
+        <v>145.870376069228</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>0.0202261059706412</v>
+        <v>0.0204429150519623</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>0.104335167592322</v>
+        <v>0.101679414095568</v>
       </c>
     </row>
     <row r="40">
@@ -1762,34 +1762,34 @@
         <v>91</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>117.257153513065</v>
+        <v>119.705316977804</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>119.705316977804</v>
+        <v>121.790550472798</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>121.790550472798</v>
+        <v>123.678301425141</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>123.678301425141</v>
+        <v>126.1636346657</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>126.1636346657</v>
+        <v>129.807891199994</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>129.807891199994</v>
+        <v>132.408398289965</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>132.408398289965</v>
+        <v>134.1700329</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>134.1700329</v>
+        <v>135.567153554503</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>0.013304553433062</v>
+        <v>0.0104130603854313</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.0848308179685775</v>
+        <v>0.0745343054971412</v>
       </c>
     </row>
     <row r="41">
@@ -1797,34 +1797,34 @@
         <v>92</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>117.896044693115</v>
+        <v>119.784709680552</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>119.784709680552</v>
+        <v>121.285842757392</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>121.285842757392</v>
+        <v>122.702323492529</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>122.702323492529</v>
+        <v>124.422026355693</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>124.422026355693</v>
+        <v>127.384171926299</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>127.384171926299</v>
+        <v>129.67934888405</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>129.67934888405</v>
+        <v>130.8369708</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>130.8369708</v>
+        <v>131.934398309532</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.00892680234680276</v>
+        <v>0.00838774776595508</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.0662957886691222</v>
+        <v>0.0603781514726573</v>
       </c>
     </row>
     <row r="42">
@@ -1832,34 +1832,34 @@
         <v>93</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>116.559667288813</v>
+        <v>118.515854941576</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>118.515854941576</v>
+        <v>120.102702270377</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>120.102702270377</v>
+        <v>121.766866390241</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>121.766866390241</v>
+        <v>124.213475708148</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>124.213475708148</v>
+        <v>127.88389350418</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>127.88389350418</v>
+        <v>130.61533632128</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>130.61533632128</v>
+        <v>132.175837</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>132.175837</v>
+        <v>133.294376269257</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.0119473005442605</v>
+        <v>0.00846250944684379</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.0854827829468823</v>
+        <v>0.0731072092567917</v>
       </c>
     </row>
     <row r="43">
@@ -1867,34 +1867,34 @@
         <v>94</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>114.587919520683</v>
+        <v>116.273942347425</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>116.273942347425</v>
+        <v>117.870150295989</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>117.870150295989</v>
+        <v>119.153555476263</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>119.153555476263</v>
+        <v>121.101885345836</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>121.101885345836</v>
+        <v>124.550348003632</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>124.550348003632</v>
+        <v>127.106283299442</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>127.106283299442</v>
+        <v>128.5772738</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>128.5772738</v>
+        <v>129.626624365382</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>0.0115729172655656</v>
+        <v>0.00816124447477606</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>0.0790888554359113</v>
+        <v>0.0703931156414415</v>
       </c>
     </row>
     <row r="44">
@@ -1902,34 +1902,34 @@
         <v>95</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>114.890350306928</v>
+        <v>116.716428585883</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>116.716428585883</v>
+        <v>118.421215212262</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>118.421215212262</v>
+        <v>119.843138465574</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>119.843138465574</v>
+        <v>121.671703107083</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>121.671703107083</v>
+        <v>126.240804990167</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>126.240804990167</v>
+        <v>130.031530307968</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>130.031530307968</v>
+        <v>132.5779589</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>132.5779589</v>
+        <v>134.701812425495</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>0.0195831625298957</v>
+        <v>0.0160196577403713</v>
       </c>
       <c r="K44" s="5" t="n">
-        <v>0.10626240765619</v>
+        <v>0.107092355787477</v>
       </c>
     </row>
     <row r="45">
@@ -1937,34 +1937,34 @@
         <v>96</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>120.990141398164</v>
+        <v>123.289159233418</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>123.289159233418</v>
+        <v>124.884015248977</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>124.884015248977</v>
+        <v>126.569681898112</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>126.569681898112</v>
+        <v>129.088100747467</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>129.088100747467</v>
+        <v>132.559110336637</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>132.559110336637</v>
+        <v>135.575186177554</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>135.575186177554</v>
+        <v>137.8779277</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>137.8779277</v>
+        <v>139.815511042447</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>0.0169849777630415</v>
+        <v>0.0140528899350947</v>
       </c>
       <c r="K45" s="5" t="n">
-        <v>0.0893440327280832</v>
+        <v>0.0831014650681543</v>
       </c>
     </row>
     <row r="46">
@@ -1972,34 +1972,34 @@
         <v>97</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>119.097708496977</v>
+        <v>121.077999916397</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>121.077999916397</v>
+        <v>122.203015111417</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>122.203015111417</v>
+        <v>123.439530494606</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>123.439530494606</v>
+        <v>125.325035914412</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>125.325035914412</v>
+        <v>127.893644582085</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>127.893644582085</v>
+        <v>129.667251770325</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>129.667251770325</v>
+        <v>130.1952799</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>130.1952799</v>
+        <v>130.407848927784</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>0.00407217799765092</v>
+        <v>0.00163269381153652</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.0547292214926984</v>
+        <v>0.040557044139554</v>
       </c>
     </row>
   </sheetData>

--- a/tabuladoSHF.xlsx
+++ b/tabuladoSHF.xlsx
@@ -168,13 +168,13 @@
     <t xml:space="preserve">2017=100</t>
   </si>
   <si>
-    <t xml:space="preserve">2019 T1- 2021 T4</t>
+    <t xml:space="preserve">2019 T1- 2022 T1</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Trimestral</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: mayo 2022</t>
+    <t xml:space="preserve">Próxima actualización: agosto 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: SHF; Sociedad Hipotecaía Federal</t>
@@ -183,9 +183,6 @@
     <t xml:space="preserve">Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice SHF 2020 T1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Índice SHF 2020 T2</t>
   </si>
   <si>
@@ -207,6 +204,9 @@
     <t xml:space="preserve">Índice SHF 2021 T4</t>
   </si>
   <si>
+    <t xml:space="preserve">Índice SHF 2022 T1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Varición MM</t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t xml:space="preserve">Campeche</t>
   </si>
   <si>
-    <t xml:space="preserve">Coahuila de Zaragoza</t>
+    <t xml:space="preserve">Coahuila</t>
   </si>
   <si>
     <t xml:space="preserve">Colima</t>
@@ -258,7 +258,7 @@
     <t xml:space="preserve">México</t>
   </si>
   <si>
-    <t xml:space="preserve">Michoacán de Ocampo</t>
+    <t xml:space="preserve">Michoacán</t>
   </si>
   <si>
     <t xml:space="preserve">Morelos</t>
@@ -300,7 +300,7 @@
     <t xml:space="preserve">Tlaxcala</t>
   </si>
   <si>
-    <t xml:space="preserve">Veracruz de Ignacio de la Llave</t>
+    <t xml:space="preserve">Veracruz</t>
   </si>
   <si>
     <t xml:space="preserve">Yucatán</t>
@@ -887,34 +887,34 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>122.450613713169</v>
+        <v>123.9</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>123.896727960474</v>
+        <v>125.42</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>125.422014293839</v>
+        <v>127.47</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>127.471825967667</v>
+        <v>130.32</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>130.319455544008</v>
+        <v>132.58</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>132.581494916877</v>
+        <v>133.91</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>133.9076921</v>
+        <v>135.03</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>135.032620163121</v>
+        <v>138.03</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.00840077254323024</v>
+        <v>0.0222172850477671</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0593134532910182</v>
+        <v>0.0591620626151013</v>
       </c>
     </row>
     <row r="16">
@@ -922,34 +922,34 @@
         <v>67</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>124.729864169942</v>
+        <v>126.68</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>126.676336140826</v>
+        <v>128.75</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>128.748198023019</v>
+        <v>131.76</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>131.757750892198</v>
+        <v>135.89</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>135.890226363938</v>
+        <v>139.59</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>139.588824770927</v>
+        <v>142.53</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>142.5252076</v>
+        <v>145.15</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>145.154708223373</v>
+        <v>149.26</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0184493723436823</v>
+        <v>0.0283155356527729</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.101678703836833</v>
+        <v>0.0983884023842814</v>
       </c>
     </row>
     <row r="17">
@@ -957,34 +957,34 @@
         <v>68</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>124.784514983278</v>
+        <v>126.95</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>126.94590539346</v>
+        <v>129.3</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>129.304254095168</v>
+        <v>133.02</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>133.02046419436</v>
+        <v>137.8</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>137.798694070044</v>
+        <v>142.19</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>142.189258397927</v>
+        <v>146.06</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>146.0622012</v>
+        <v>149.65</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>149.653913604331</v>
+        <v>154.58</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0245902935518063</v>
+        <v>0.0329435349148013</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.125044289318277</v>
+        <v>0.121770682148041</v>
       </c>
     </row>
     <row r="18">
@@ -992,34 +992,34 @@
         <v>69</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>123.459275302062</v>
+        <v>125.3</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>125.299891177794</v>
+        <v>127.27</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>127.269271110213</v>
+        <v>130.26</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>130.259998216768</v>
+        <v>134.5</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>134.496084741854</v>
+        <v>138.35</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>138.350212849054</v>
+        <v>141.39</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>141.3854067</v>
+        <v>144.12</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>144.117084630264</v>
+        <v>147.49</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0193207912614364</v>
+        <v>0.0233832917013601</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.106380213443855</v>
+        <v>0.0965799256505577</v>
       </c>
     </row>
     <row r="19">
@@ -1027,34 +1027,34 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>120.80259436533</v>
+        <v>122.51</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>122.509058898646</v>
+        <v>124.17</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>124.170969093498</v>
+        <v>126.53</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>126.533320242456</v>
+        <v>130.31</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>130.31445357388</v>
+        <v>133.29</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>133.293433407726</v>
+        <v>135.28</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>135.2805507</v>
+        <v>136.92</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>136.922983498706</v>
+        <v>139.65</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0121409381482214</v>
+        <v>0.0199386503067487</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.0821100974537134</v>
+        <v>0.0716752359757502</v>
       </c>
     </row>
     <row r="20">
@@ -1062,34 +1062,34 @@
         <v>71</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>122.602316776161</v>
+        <v>124.35</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>124.35495129856</v>
+        <v>126.26</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>126.255109221536</v>
+        <v>128.44</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>128.439176748887</v>
+        <v>132.09</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>132.087601176266</v>
+        <v>135.07</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>135.06631882789</v>
+        <v>137.1</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>137.1025128</v>
+        <v>139.24</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>139.244535455207</v>
+        <v>143.05</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0156235112797072</v>
+        <v>0.0273628267739157</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.084128215236428</v>
+        <v>0.0829737300325537</v>
       </c>
     </row>
     <row r="21">
@@ -1097,34 +1097,34 @@
         <v>72</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>120.596049263695</v>
+        <v>122.04</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>122.044430329314</v>
+        <v>123.55</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>123.546567897198</v>
+        <v>125.77</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>125.765246111631</v>
+        <v>129.27</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>129.27062219364</v>
+        <v>132.34</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>132.338242641941</v>
+        <v>134.38</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>134.3841233</v>
+        <v>136.24</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>136.235134426532</v>
+        <v>139</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0137740313444601</v>
+        <v>0.0202583675866117</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0832494559395827</v>
+        <v>0.075268817204301</v>
       </c>
     </row>
     <row r="22">
@@ -1132,34 +1132,34 @@
         <v>73</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>120.073669828406</v>
+        <v>121.89</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>121.893695326908</v>
+        <v>123.73</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>123.727271073855</v>
+        <v>126.31</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>126.309187744049</v>
+        <v>130.77</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>130.765622752888</v>
+        <v>134.64</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>134.642681836851</v>
+        <v>137.62</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>137.6203439</v>
+        <v>140.23</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>140.225599968451</v>
+        <v>143.35</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.0189307481337504</v>
+        <v>0.0222491620908507</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.11017735505197</v>
+        <v>0.0961994341209755</v>
       </c>
     </row>
     <row r="23">
@@ -1167,34 +1167,34 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>125.327603203162</v>
+        <v>124.57</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>124.569354201473</v>
+        <v>122.75</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>122.754539541255</v>
+        <v>122.93</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>122.933230273783</v>
+        <v>124.87</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>124.866686504883</v>
+        <v>127.35</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>127.354344373983</v>
+        <v>130.17</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>130.1662495</v>
+        <v>131.65</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>131.653781705953</v>
+        <v>132.98</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0114279408961</v>
+        <v>0.010102544625902</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0709372999696549</v>
+        <v>0.064947545447265</v>
       </c>
     </row>
     <row r="24">
@@ -1202,34 +1202,34 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>117.694629026417</v>
+        <v>119.54</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>119.544174566117</v>
+        <v>120.97</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>120.973295278653</v>
+        <v>122.53</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>122.527660895224</v>
+        <v>126.01</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>126.012199086746</v>
+        <v>128.71</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>128.70985975341</v>
+        <v>130.3</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>130.300997</v>
+        <v>131.59</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>131.594426255309</v>
+        <v>133.22</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.00992647243757472</v>
+        <v>0.0123869594954022</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0739977021828417</v>
+        <v>0.0572176811364178</v>
       </c>
     </row>
     <row r="25">
@@ -1237,34 +1237,34 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>124.23561068726</v>
+        <v>125.94</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>125.935141355649</v>
+        <v>127.6</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>127.600300549948</v>
+        <v>129.38</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>129.376954823568</v>
+        <v>132.53</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>132.533123149429</v>
+        <v>134.97</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>134.967048785503</v>
+        <v>136.43</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>136.4289089</v>
+        <v>138.01</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>138.013556440271</v>
+        <v>140.98</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0116151888411899</v>
+        <v>0.0215201796971234</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.0667553323424621</v>
+        <v>0.0637591488719533</v>
       </c>
     </row>
     <row r="26">
@@ -1272,34 +1272,34 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>119.465209930342</v>
+        <v>120.63</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>120.62943191819</v>
+        <v>121.28</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>121.280459820935</v>
+        <v>123.11</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>123.10934075532</v>
+        <v>127.05</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>127.045232778001</v>
+        <v>130.66</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>130.660676899587</v>
+        <v>133.53</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>133.532633</v>
+        <v>136.17</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>136.174812105819</v>
+        <v>139.68</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.019786767073027</v>
+        <v>0.0257766027759421</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.106129001019237</v>
+        <v>0.0994096812278631</v>
       </c>
     </row>
     <row r="27">
@@ -1307,34 +1307,34 @@
         <v>78</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>118.628878840299</v>
+        <v>119.83</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>119.828007112164</v>
+        <v>120.79</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>120.793545286155</v>
+        <v>121.96</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>121.960919698424</v>
+        <v>125.08</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>125.081959123941</v>
+        <v>127.54</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>127.536047356306</v>
+        <v>128.75</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>128.7453584</v>
+        <v>129.87</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>129.872688150627</v>
+        <v>132.23</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.00875627490293285</v>
+        <v>0.018172018172018</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0648713413425108</v>
+        <v>0.0571634154141349</v>
       </c>
     </row>
     <row r="28">
@@ -1342,34 +1342,34 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>129.802903024021</v>
+        <v>132.02</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>132.024211346474</v>
+        <v>133.9</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>133.896595823705</v>
+        <v>136.66</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>136.657161447536</v>
+        <v>140.72</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>140.723276323451</v>
+        <v>144.06</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>144.058068339466</v>
+        <v>146.92</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>146.9169976</v>
+        <v>148.62</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>148.62402727738</v>
+        <v>151.77</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.0116190073665106</v>
+        <v>0.0211949939442875</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.0875685233257111</v>
+        <v>0.0785247299602048</v>
       </c>
     </row>
     <row r="29">
@@ -1377,34 +1377,34 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>120.162509029872</v>
+        <v>121.3</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>121.304241479758</v>
+        <v>121.92</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>121.924341627409</v>
+        <v>123.24</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>123.240437269907</v>
+        <v>126.46</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>126.456215215588</v>
+        <v>129.22</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>129.219096534674</v>
+        <v>130.82</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>130.8213661</v>
+        <v>132.28</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>132.281255443779</v>
+        <v>134.32</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0111594106322286</v>
+        <v>0.0154218324765647</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0733591861092788</v>
+        <v>0.062154040803416</v>
       </c>
     </row>
     <row r="30">
@@ -1412,34 +1412,34 @@
         <v>81</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>122.150563107377</v>
+        <v>123.75</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>123.750907724003</v>
+        <v>125.19</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>125.185363841345</v>
+        <v>126.56</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>126.562849915452</v>
+        <v>131.11</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>131.110415461495</v>
+        <v>135.28</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>135.279186329916</v>
+        <v>138.36</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>138.3588566</v>
+        <v>141.45</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>141.450272220433</v>
+        <v>145.59</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0223434603060531</v>
+        <v>0.0292682926829269</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.117628690527483</v>
+        <v>0.110441613911982</v>
       </c>
     </row>
     <row r="31">
@@ -1447,34 +1447,34 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>120.167864662249</v>
+        <v>121.19</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>121.189597050662</v>
+        <v>121.62</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>121.621065699925</v>
+        <v>123.15</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>123.15114250598</v>
+        <v>127.19</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>127.188349619033</v>
+        <v>131.17</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>131.16757554752</v>
+        <v>134.46</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>134.4622597</v>
+        <v>137.56</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>137.560077395189</v>
+        <v>140.65</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>0.0230385663761756</v>
+        <v>0.0224629252689736</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>0.117002039899949</v>
+        <v>0.105825929711455</v>
       </c>
     </row>
     <row r="32">
@@ -1482,34 +1482,34 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>124.779483860415</v>
+        <v>126.76</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>126.75769131907</v>
+        <v>128.81</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>128.813973706876</v>
+        <v>131.88</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>131.878295207895</v>
+        <v>136.53</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>136.526425233561</v>
+        <v>140.68</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>140.681173627358</v>
+        <v>144.47</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>144.4684947</v>
+        <v>148.24</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>148.2425336478</v>
+        <v>153.13</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>0.0261236123186379</v>
+        <v>0.0329870480302212</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>0.124085911287435</v>
+        <v>0.12158499963378</v>
       </c>
     </row>
     <row r="33">
@@ -1517,34 +1517,34 @@
         <v>84</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>124.79123536959</v>
+        <v>126.85</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>126.849356541642</v>
+        <v>128.96</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>128.963617688456</v>
+        <v>131.26</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>131.261075276401</v>
+        <v>134.98</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>134.980127350945</v>
+        <v>138.02</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>138.019387056454</v>
+        <v>140.13</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>140.1255917</v>
+        <v>142.25</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>142.24963327562</v>
+        <v>145.65</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>0.015158127433049</v>
+        <v>0.0239015817223198</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>0.0837152825091523</v>
+        <v>0.0790487479626614</v>
       </c>
     </row>
     <row r="34">
@@ -1552,34 +1552,34 @@
         <v>85</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>120.164588008221</v>
+        <v>121.72</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>121.716622748404</v>
+        <v>123.19</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>123.185548025601</v>
+        <v>125.4</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>125.401890177396</v>
+        <v>128.93</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>128.931615775761</v>
+        <v>131.84</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>131.835309854676</v>
+        <v>133.44</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>133.4389325</v>
+        <v>134.57</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>134.57111259814</v>
+        <v>136.64</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>0.00848463096135754</v>
+        <v>0.0153823288994575</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.073118693887094</v>
+        <v>0.0597998914139455</v>
       </c>
     </row>
     <row r="35">
@@ -1587,34 +1587,34 @@
         <v>86</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>123.701283718153</v>
+        <v>125.66</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>125.655375837292</v>
+        <v>127.39</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>127.394275476452</v>
+        <v>129.93</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>129.925022586523</v>
+        <v>133.73</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>133.728446590831</v>
+        <v>137.01</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>137.011079123541</v>
+        <v>139.51</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>139.50729</v>
+        <v>141.71</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>141.712071761783</v>
+        <v>144.75</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.0158040612915855</v>
+        <v>0.0214522616611388</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.0907219328548545</v>
+        <v>0.0824048455843864</v>
       </c>
     </row>
     <row r="36">
@@ -1622,34 +1622,34 @@
         <v>87</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>121.434568875795</v>
+        <v>122.77</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>122.765192096927</v>
+        <v>123.61</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>123.60527833594</v>
+        <v>125.22</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>125.217662548037</v>
+        <v>128.68</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>128.678412253564</v>
+        <v>131.68</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>131.6845551995</v>
+        <v>133.58</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>133.5797203</v>
+        <v>135.37</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>135.370629162622</v>
+        <v>138.13</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.0134070415673868</v>
+        <v>0.0203885646745954</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.0810825438519112</v>
+        <v>0.0734379857009635</v>
       </c>
     </row>
     <row r="37">
@@ -1657,34 +1657,34 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>125.230795733481</v>
+        <v>126.99</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>126.993210135979</v>
+        <v>129.18</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>129.183844369694</v>
+        <v>133.2</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>133.20157426898</v>
+        <v>138.08</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>138.078566293459</v>
+        <v>142.51</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>142.513163721898</v>
+        <v>146.51</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>146.5098633</v>
+        <v>149.93</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>149.930482667687</v>
+        <v>155.19</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>0.0233473657721104</v>
+        <v>0.0350830387514172</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>0.125590921057176</v>
+        <v>0.123913673232908</v>
       </c>
     </row>
     <row r="38">
@@ -1692,34 +1692,34 @@
         <v>89</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>123.437167055621</v>
+        <v>125.87</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>125.86715918729</v>
+        <v>128.25</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>128.245874000871</v>
+        <v>130.81</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>130.814543780468</v>
+        <v>134.56</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>134.558370979085</v>
+        <v>137.5</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>137.50148530014</v>
+        <v>139.57</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>139.5677396</v>
+        <v>141.71</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>141.709522347875</v>
+        <v>145.02</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>0.0153458295879358</v>
+        <v>0.0233575612165691</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>0.08328568255905</v>
+        <v>0.0777348394768134</v>
       </c>
     </row>
     <row r="39">
@@ -1727,34 +1727,34 @@
         <v>90</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>124.952214980179</v>
+        <v>127.08</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>127.077108593925</v>
+        <v>129.44</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>129.44267682035</v>
+        <v>132.41</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>132.407281286073</v>
+        <v>136.62</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>136.616151864464</v>
+        <v>140.11</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>140.11413682068</v>
+        <v>142.95</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>142.9481002</v>
+        <v>145.87</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>145.870376069228</v>
+        <v>150.59</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>0.0204429150519623</v>
+        <v>0.0323575786659354</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>0.101679414095568</v>
+        <v>0.102254428341385</v>
       </c>
     </row>
     <row r="40">
@@ -1762,34 +1762,34 @@
         <v>91</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>119.705316977804</v>
+        <v>121.79</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>121.790550472798</v>
+        <v>123.68</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>123.678301425141</v>
+        <v>126.16</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>126.1636346657</v>
+        <v>129.81</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>129.807891199994</v>
+        <v>132.41</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>132.408398289965</v>
+        <v>134.17</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>134.1700329</v>
+        <v>135.57</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>135.567153554503</v>
+        <v>137.86</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>0.0104130603854313</v>
+        <v>0.0168916426938115</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.0745343054971412</v>
+        <v>0.0620137123488176</v>
       </c>
     </row>
     <row r="41">
@@ -1797,34 +1797,34 @@
         <v>92</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>119.784709680552</v>
+        <v>121.29</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>121.285842757392</v>
+        <v>122.7</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>122.702323492529</v>
+        <v>124.42</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>124.422026355693</v>
+        <v>127.38</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>127.384171926299</v>
+        <v>129.68</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>129.67934888405</v>
+        <v>130.84</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>130.8369708</v>
+        <v>131.93</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>131.934398309532</v>
+        <v>134.15</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.00838774776595508</v>
+        <v>0.0168271052831046</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.0603781514726573</v>
+        <v>0.0531480609200816</v>
       </c>
     </row>
     <row r="42">
@@ -1832,34 +1832,34 @@
         <v>93</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>118.515854941576</v>
+        <v>120.1</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>120.102702270377</v>
+        <v>121.77</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>121.766866390241</v>
+        <v>124.21</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>124.213475708148</v>
+        <v>127.88</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>127.88389350418</v>
+        <v>130.62</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>130.61533632128</v>
+        <v>132.18</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>132.175837</v>
+        <v>133.29</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>133.294376269257</v>
+        <v>135.86</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.00846250944684379</v>
+        <v>0.019281266411584</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.0731072092567917</v>
+        <v>0.0624022521113545</v>
       </c>
     </row>
     <row r="43">
@@ -1867,34 +1867,34 @@
         <v>94</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>116.273942347425</v>
+        <v>117.87</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>117.870150295989</v>
+        <v>119.15</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>119.153555476263</v>
+        <v>121.1</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>121.101885345836</v>
+        <v>124.55</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>124.550348003632</v>
+        <v>127.11</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>127.106283299442</v>
+        <v>128.58</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>128.5772738</v>
+        <v>129.63</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>129.626624365382</v>
+        <v>131.74</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>0.00816124447477606</v>
+        <v>0.0162770963511534</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>0.0703931156414415</v>
+        <v>0.0577278201525493</v>
       </c>
     </row>
     <row r="44">
@@ -1902,34 +1902,34 @@
         <v>95</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>116.716428585883</v>
+        <v>118.42</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>118.421215212262</v>
+        <v>119.84</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>119.843138465574</v>
+        <v>121.67</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>121.671703107083</v>
+        <v>126.24</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>126.240804990167</v>
+        <v>130.03</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>130.031530307968</v>
+        <v>132.58</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>132.5779589</v>
+        <v>134.7</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>134.701812425495</v>
+        <v>137.3</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>0.0160196577403713</v>
+        <v>0.0193021529324426</v>
       </c>
       <c r="K44" s="5" t="n">
-        <v>0.107092355787477</v>
+        <v>0.0876108998732574</v>
       </c>
     </row>
     <row r="45">
@@ -1937,34 +1937,34 @@
         <v>96</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>123.289159233418</v>
+        <v>124.88</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>124.884015248977</v>
+        <v>126.57</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>126.569681898112</v>
+        <v>129.09</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>129.088100747467</v>
+        <v>132.56</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>132.559110336637</v>
+        <v>135.58</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>135.575186177554</v>
+        <v>137.88</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>137.8779277</v>
+        <v>139.82</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>139.815511042447</v>
+        <v>142.94</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>0.0140528899350947</v>
+        <v>0.0223144042340151</v>
       </c>
       <c r="K45" s="5" t="n">
-        <v>0.0831014650681543</v>
+        <v>0.0783041641520821</v>
       </c>
     </row>
     <row r="46">
@@ -1972,34 +1972,34 @@
         <v>97</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>121.077999916397</v>
+        <v>122.2</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>122.203015111417</v>
+        <v>123.44</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>123.439530494606</v>
+        <v>125.33</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>125.325035914412</v>
+        <v>127.89</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>127.893644582085</v>
+        <v>129.67</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>129.667251770325</v>
+        <v>130.2</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>130.1952799</v>
+        <v>130.41</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>130.407848927784</v>
+        <v>132.82</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>0.00163269381153652</v>
+        <v>0.0184801779004677</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.040557044139554</v>
+        <v>0.038548752834467</v>
       </c>
     </row>
   </sheetData>

--- a/tabuladoSHF.xlsx
+++ b/tabuladoSHF.xlsx
@@ -168,13 +168,13 @@
     <t xml:space="preserve">2017=100</t>
   </si>
   <si>
-    <t xml:space="preserve">2019 T1- 2022 T1</t>
+    <t xml:space="preserve">2020 T2 - 2022 T1</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Trimestral</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: agosto 2022</t>
+    <t xml:space="preserve">Próxima actualización: noviembre 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: SHF; Sociedad Hipotecaía Federal</t>
@@ -183,9 +183,6 @@
     <t xml:space="preserve">Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice SHF 2020 T2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Índice SHF 2020 T3</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t xml:space="preserve">Índice SHF 2022 T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2022 T2</t>
   </si>
   <si>
     <t xml:space="preserve">Varición MM</t>
@@ -887,34 +887,34 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>123.9</v>
+        <v>125.42</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>125.42</v>
+        <v>127.47</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>127.47</v>
+        <v>130.32</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>130.32</v>
+        <v>132.58</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>132.58</v>
+        <v>133.91</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>133.91</v>
+        <v>135.03</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>135.03</v>
+        <v>138.03</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>138.03</v>
+        <v>141.76</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0222172850477671</v>
+        <v>0.0270231109179164</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0591620626151013</v>
+        <v>0.0692412128526172</v>
       </c>
     </row>
     <row r="16">
@@ -922,34 +922,34 @@
         <v>67</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>126.68</v>
+        <v>128.75</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>128.75</v>
+        <v>131.76</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>131.76</v>
+        <v>135.89</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>135.89</v>
+        <v>139.59</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>139.59</v>
+        <v>142.53</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>142.53</v>
+        <v>145.15</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>145.15</v>
+        <v>149.26</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>149.26</v>
+        <v>154.64</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0283155356527729</v>
+        <v>0.0360444861315825</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.0983884023842814</v>
+        <v>0.107815746113618</v>
       </c>
     </row>
     <row r="17">
@@ -957,34 +957,34 @@
         <v>68</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>126.95</v>
+        <v>129.3</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>129.3</v>
+        <v>133.02</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>133.02</v>
+        <v>137.8</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>137.8</v>
+        <v>142.19</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>142.19</v>
+        <v>146.06</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>146.06</v>
+        <v>149.65</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>149.65</v>
+        <v>154.58</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>154.58</v>
+        <v>160.73</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0329435349148013</v>
+        <v>0.0397852244792338</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.121770682148041</v>
+        <v>0.130388916238835</v>
       </c>
     </row>
     <row r="18">
@@ -992,34 +992,34 @@
         <v>69</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>125.3</v>
+        <v>127.27</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>127.27</v>
+        <v>130.26</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>130.26</v>
+        <v>134.5</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>134.5</v>
+        <v>138.35</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>138.35</v>
+        <v>141.39</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>141.39</v>
+        <v>144.12</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>144.12</v>
+        <v>147.49</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>147.49</v>
+        <v>152.07</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0233832917013601</v>
+        <v>0.0310529527425587</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0965799256505577</v>
+        <v>0.0991687748464041</v>
       </c>
     </row>
     <row r="19">
@@ -1027,34 +1027,34 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>122.51</v>
+        <v>124.17</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>124.17</v>
+        <v>126.53</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>126.53</v>
+        <v>130.31</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>130.31</v>
+        <v>133.29</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>133.29</v>
+        <v>135.28</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>135.28</v>
+        <v>136.92</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>136.92</v>
+        <v>139.65</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>139.65</v>
+        <v>143.56</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0199386503067487</v>
+        <v>0.027998567848192</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.0716752359757502</v>
+        <v>0.0770500412634108</v>
       </c>
     </row>
     <row r="20">
@@ -1062,34 +1062,34 @@
         <v>71</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>124.35</v>
+        <v>126.26</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>126.26</v>
+        <v>128.44</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>128.44</v>
+        <v>132.09</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>132.09</v>
+        <v>135.07</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>135.07</v>
+        <v>137.1</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>137.1</v>
+        <v>139.24</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>139.24</v>
+        <v>143.05</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>143.05</v>
+        <v>146.95</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0273628267739157</v>
+        <v>0.0272631946871722</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0829737300325537</v>
+        <v>0.0879543940179166</v>
       </c>
     </row>
     <row r="21">
@@ -1097,34 +1097,34 @@
         <v>72</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>122.04</v>
+        <v>123.55</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>123.55</v>
+        <v>125.77</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>125.77</v>
+        <v>129.27</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>129.27</v>
+        <v>132.34</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>132.34</v>
+        <v>134.38</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>134.38</v>
+        <v>136.24</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>136.24</v>
+        <v>139</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>139</v>
+        <v>142.39</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0202583675866117</v>
+        <v>0.024388489208633</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.075268817204301</v>
+        <v>0.0759407586519569</v>
       </c>
     </row>
     <row r="22">
@@ -1132,34 +1132,34 @@
         <v>73</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>121.89</v>
+        <v>123.73</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>123.73</v>
+        <v>126.31</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>126.31</v>
+        <v>130.77</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>130.77</v>
+        <v>134.64</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>134.64</v>
+        <v>137.62</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>137.62</v>
+        <v>140.23</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>140.23</v>
+        <v>143.35</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>143.35</v>
+        <v>146.96</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.0222491620908507</v>
+        <v>0.025183118242065</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.0961994341209755</v>
+        <v>0.0915032679738563</v>
       </c>
     </row>
     <row r="23">
@@ -1167,34 +1167,34 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>124.57</v>
+        <v>122.75</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>122.75</v>
+        <v>122.93</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>122.93</v>
+        <v>124.87</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>124.87</v>
+        <v>127.35</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>127.35</v>
+        <v>130.17</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>130.17</v>
+        <v>131.65</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>131.65</v>
+        <v>132.98</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>132.98</v>
+        <v>136</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.010102544625902</v>
+        <v>0.0227101819822531</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.064947545447265</v>
+        <v>0.0679230467216334</v>
       </c>
     </row>
     <row r="24">
@@ -1202,34 +1202,34 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>119.54</v>
+        <v>120.97</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>120.97</v>
+        <v>122.53</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>122.53</v>
+        <v>126.01</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>126.01</v>
+        <v>128.71</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>128.71</v>
+        <v>130.3</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>130.3</v>
+        <v>131.59</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>131.59</v>
+        <v>133.22</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>133.22</v>
+        <v>135.01</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0123869594954022</v>
+        <v>0.0134364209578142</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0572176811364178</v>
+        <v>0.0489472457462512</v>
       </c>
     </row>
     <row r="25">
@@ -1237,34 +1237,34 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>125.94</v>
+        <v>127.6</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>127.6</v>
+        <v>129.38</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>129.38</v>
+        <v>132.53</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>132.53</v>
+        <v>134.97</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>134.97</v>
+        <v>136.43</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>136.43</v>
+        <v>138.01</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>138.01</v>
+        <v>140.98</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>140.98</v>
+        <v>144.31</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0215201796971234</v>
+        <v>0.0236203716839269</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.0637591488719533</v>
+        <v>0.0692005630880936</v>
       </c>
     </row>
     <row r="26">
@@ -1272,34 +1272,34 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>120.63</v>
+        <v>121.28</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>121.28</v>
+        <v>123.11</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>123.11</v>
+        <v>127.05</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>127.05</v>
+        <v>130.66</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>130.66</v>
+        <v>133.53</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>133.53</v>
+        <v>136.17</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>136.17</v>
+        <v>139.68</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>139.68</v>
+        <v>143.97</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0257766027759421</v>
+        <v>0.0307130584192439</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0994096812278631</v>
+        <v>0.10186744221644</v>
       </c>
     </row>
     <row r="27">
@@ -1307,34 +1307,34 @@
         <v>78</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>119.83</v>
+        <v>120.79</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>120.79</v>
+        <v>121.96</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>121.96</v>
+        <v>125.08</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>125.08</v>
+        <v>127.54</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>127.54</v>
+        <v>128.75</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>128.75</v>
+        <v>129.87</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>129.87</v>
+        <v>132.23</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>132.23</v>
+        <v>135.13</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.018172018172018</v>
+        <v>0.0219314830220072</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0571634154141349</v>
+        <v>0.0595107417280851</v>
       </c>
     </row>
     <row r="28">
@@ -1342,34 +1342,34 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>132.02</v>
+        <v>133.9</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>133.9</v>
+        <v>136.66</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>136.66</v>
+        <v>140.72</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>140.72</v>
+        <v>144.06</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>144.06</v>
+        <v>146.92</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>146.92</v>
+        <v>148.62</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>148.62</v>
+        <v>151.77</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>151.77</v>
+        <v>156</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.0211949939442875</v>
+        <v>0.0278711207748565</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.0785247299602048</v>
+        <v>0.0828821324448146</v>
       </c>
     </row>
     <row r="29">
@@ -1377,34 +1377,34 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>121.3</v>
+        <v>121.92</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>121.92</v>
+        <v>123.24</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>123.24</v>
+        <v>126.46</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>126.46</v>
+        <v>129.22</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>129.22</v>
+        <v>130.82</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>130.82</v>
+        <v>132.28</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>132.28</v>
+        <v>134.32</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>134.32</v>
+        <v>136.51</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0154218324765647</v>
+        <v>0.0163043478260869</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.062154040803416</v>
+        <v>0.0564154155703451</v>
       </c>
     </row>
     <row r="30">
@@ -1412,34 +1412,34 @@
         <v>81</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>123.75</v>
+        <v>125.19</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>125.19</v>
+        <v>126.56</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>126.56</v>
+        <v>131.11</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>131.11</v>
+        <v>135.28</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>135.28</v>
+        <v>138.36</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>138.36</v>
+        <v>141.45</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>141.45</v>
+        <v>145.59</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>145.59</v>
+        <v>150</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0292682926829269</v>
+        <v>0.030290541932825</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.110441613911982</v>
+        <v>0.108811354228267</v>
       </c>
     </row>
     <row r="31">
@@ -1447,34 +1447,34 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>121.19</v>
+        <v>121.62</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>121.62</v>
+        <v>123.15</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>123.15</v>
+        <v>127.19</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>127.19</v>
+        <v>131.17</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>131.17</v>
+        <v>134.46</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>134.46</v>
+        <v>137.56</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>137.56</v>
+        <v>140.65</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>140.65</v>
+        <v>143.9</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>0.0224629252689736</v>
+        <v>0.0231070031994312</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>0.105825929711455</v>
+        <v>0.0970496302508197</v>
       </c>
     </row>
     <row r="32">
@@ -1482,34 +1482,34 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>126.76</v>
+        <v>128.81</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>128.81</v>
+        <v>131.88</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>131.88</v>
+        <v>136.53</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>136.53</v>
+        <v>140.68</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>140.68</v>
+        <v>144.47</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>144.47</v>
+        <v>148.24</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>148.24</v>
+        <v>153.13</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>153.13</v>
+        <v>158.72</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>0.0329870480302212</v>
+        <v>0.0365049304512506</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>0.12158499963378</v>
+        <v>0.12823429058857</v>
       </c>
     </row>
     <row r="33">
@@ -1517,34 +1517,34 @@
         <v>84</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>126.85</v>
+        <v>128.96</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>128.96</v>
+        <v>131.26</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>131.26</v>
+        <v>134.98</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>134.98</v>
+        <v>138.02</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>138.02</v>
+        <v>140.13</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>140.13</v>
+        <v>142.25</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>142.25</v>
+        <v>145.65</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>145.65</v>
+        <v>149.29</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>0.0239015817223198</v>
+        <v>0.0249914177823549</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>0.0790487479626614</v>
+        <v>0.0816548326329516</v>
       </c>
     </row>
     <row r="34">
@@ -1552,34 +1552,34 @@
         <v>85</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>121.72</v>
+        <v>123.19</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>123.19</v>
+        <v>125.4</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>125.4</v>
+        <v>128.93</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>128.93</v>
+        <v>131.84</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>131.84</v>
+        <v>133.44</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>133.44</v>
+        <v>134.57</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>134.57</v>
+        <v>136.64</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>136.64</v>
+        <v>139.39</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>0.0153823288994575</v>
+        <v>0.0201258782201406</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.0597998914139455</v>
+        <v>0.0572663834951455</v>
       </c>
     </row>
     <row r="35">
@@ -1587,34 +1587,34 @@
         <v>86</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>125.66</v>
+        <v>127.39</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>127.39</v>
+        <v>129.93</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>129.93</v>
+        <v>133.73</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>133.73</v>
+        <v>137.01</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>137.01</v>
+        <v>139.51</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>139.51</v>
+        <v>141.71</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>141.71</v>
+        <v>144.75</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>144.75</v>
+        <v>148.13</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.0214522616611388</v>
+        <v>0.0233506044905007</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.0824048455843864</v>
+        <v>0.0811619589810963</v>
       </c>
     </row>
     <row r="36">
@@ -1622,34 +1622,34 @@
         <v>87</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>122.77</v>
+        <v>123.61</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>123.61</v>
+        <v>125.22</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>125.22</v>
+        <v>128.68</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>128.68</v>
+        <v>131.68</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>131.68</v>
+        <v>133.58</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>133.58</v>
+        <v>135.37</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>135.37</v>
+        <v>138.13</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>138.13</v>
+        <v>141.52</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.0203885646745954</v>
+        <v>0.0245420980236011</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.0734379857009635</v>
+        <v>0.074726609963548</v>
       </c>
     </row>
     <row r="37">
@@ -1657,34 +1657,34 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>126.99</v>
+        <v>129.18</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>129.18</v>
+        <v>133.2</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>133.2</v>
+        <v>138.08</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>138.08</v>
+        <v>142.51</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>142.51</v>
+        <v>146.51</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>146.51</v>
+        <v>149.93</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>149.93</v>
+        <v>155.19</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>155.19</v>
+        <v>161.69</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>0.0350830387514172</v>
+        <v>0.04188414201946</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>0.123913673232908</v>
+        <v>0.134587046523051</v>
       </c>
     </row>
     <row r="38">
@@ -1692,34 +1692,34 @@
         <v>89</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>125.87</v>
+        <v>128.25</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>128.25</v>
+        <v>130.81</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>130.81</v>
+        <v>134.56</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>134.56</v>
+        <v>137.5</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>137.5</v>
+        <v>139.57</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>139.57</v>
+        <v>141.71</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>141.71</v>
+        <v>145.02</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>145.02</v>
+        <v>148.32</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>0.0233575612165691</v>
+        <v>0.0227554820024822</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>0.0777348394768134</v>
+        <v>0.0786909090909091</v>
       </c>
     </row>
     <row r="39">
@@ -1727,34 +1727,34 @@
         <v>90</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>127.08</v>
+        <v>129.44</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>129.44</v>
+        <v>132.41</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>132.41</v>
+        <v>136.62</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>136.62</v>
+        <v>140.11</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>140.11</v>
+        <v>142.95</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>142.95</v>
+        <v>145.87</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>145.87</v>
+        <v>150.59</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>150.59</v>
+        <v>156.31</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>0.0323575786659354</v>
+        <v>0.0379839298758218</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>0.102254428341385</v>
+        <v>0.115623438726715</v>
       </c>
     </row>
     <row r="40">
@@ -1762,34 +1762,34 @@
         <v>91</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>121.79</v>
+        <v>123.68</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>123.68</v>
+        <v>126.16</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>126.16</v>
+        <v>129.81</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>129.81</v>
+        <v>132.41</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>132.41</v>
+        <v>134.17</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>134.17</v>
+        <v>135.57</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>135.57</v>
+        <v>137.86</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>137.86</v>
+        <v>141.02</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>0.0168916426938115</v>
+        <v>0.0229218047294357</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.0620137123488176</v>
+        <v>0.0650253002039123</v>
       </c>
     </row>
     <row r="41">
@@ -1797,34 +1797,34 @@
         <v>92</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>121.29</v>
+        <v>122.7</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>122.7</v>
+        <v>124.42</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>124.42</v>
+        <v>127.38</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>127.38</v>
+        <v>129.68</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>129.68</v>
+        <v>130.84</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>130.84</v>
+        <v>131.93</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>131.93</v>
+        <v>134.15</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>134.15</v>
+        <v>137.17</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.0168271052831046</v>
+        <v>0.0225121133060007</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.0531480609200816</v>
+        <v>0.0577575570635409</v>
       </c>
     </row>
     <row r="42">
@@ -1832,34 +1832,34 @@
         <v>93</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>120.1</v>
+        <v>121.77</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>121.77</v>
+        <v>124.21</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>124.21</v>
+        <v>127.88</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>127.88</v>
+        <v>130.62</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>130.62</v>
+        <v>132.18</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>132.18</v>
+        <v>133.29</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>133.29</v>
+        <v>135.86</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>135.86</v>
+        <v>139.2</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.019281266411584</v>
+        <v>0.0245841307228027</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.0624022521113545</v>
+        <v>0.0656867248507118</v>
       </c>
     </row>
     <row r="43">
@@ -1867,34 +1867,34 @@
         <v>94</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>117.87</v>
+        <v>119.15</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>119.15</v>
+        <v>121.1</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>121.1</v>
+        <v>124.55</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>124.55</v>
+        <v>127.11</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>127.11</v>
+        <v>128.58</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>128.58</v>
+        <v>129.63</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>129.63</v>
+        <v>131.74</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>131.74</v>
+        <v>134.54</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>0.0162770963511534</v>
+        <v>0.0212539851222102</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>0.0577278201525493</v>
+        <v>0.0584533081582881</v>
       </c>
     </row>
     <row r="44">
@@ -1902,34 +1902,34 @@
         <v>95</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>118.42</v>
+        <v>119.84</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>119.84</v>
+        <v>121.67</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>121.67</v>
+        <v>126.24</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>126.24</v>
+        <v>130.03</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>130.03</v>
+        <v>132.58</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>132.58</v>
+        <v>134.7</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>134.7</v>
+        <v>137.3</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>137.3</v>
+        <v>140.7</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>0.0193021529324426</v>
+        <v>0.0247632920611798</v>
       </c>
       <c r="K44" s="5" t="n">
-        <v>0.0876108998732574</v>
+        <v>0.0820579866184725</v>
       </c>
     </row>
     <row r="45">
@@ -1937,34 +1937,34 @@
         <v>96</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>124.88</v>
+        <v>126.57</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>126.57</v>
+        <v>129.09</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>129.09</v>
+        <v>132.56</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>132.56</v>
+        <v>135.58</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>135.58</v>
+        <v>137.88</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>137.88</v>
+        <v>139.82</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>139.82</v>
+        <v>142.94</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>142.94</v>
+        <v>146.98</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>0.0223144042340151</v>
+        <v>0.0282636071078775</v>
       </c>
       <c r="K45" s="5" t="n">
-        <v>0.0783041641520821</v>
+        <v>0.0840831981118157</v>
       </c>
     </row>
     <row r="46">
@@ -1972,34 +1972,34 @@
         <v>97</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>122.2</v>
+        <v>123.44</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>123.44</v>
+        <v>125.33</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>125.33</v>
+        <v>127.89</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>127.89</v>
+        <v>129.67</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>129.67</v>
+        <v>130.2</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>130.2</v>
+        <v>130.41</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>130.41</v>
+        <v>132.82</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>132.82</v>
+        <v>136.29</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>0.0184801779004677</v>
+        <v>0.0261255834964613</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.038548752834467</v>
+        <v>0.0510526721678106</v>
       </c>
     </row>
   </sheetData>

--- a/tabuladoSHF.xlsx
+++ b/tabuladoSHF.xlsx
@@ -168,13 +168,13 @@
     <t xml:space="preserve">2017=100</t>
   </si>
   <si>
-    <t xml:space="preserve">2020 T2 - 2022 T1</t>
+    <t xml:space="preserve">2021 T3 - 2022 T3</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Trimestral</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: noviembre 2022</t>
+    <t xml:space="preserve">Próxima actualización: febrero 2022</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: SHF; Sociedad Hipotecaía Federal</t>
@@ -183,9 +183,6 @@
     <t xml:space="preserve">Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice SHF 2020 T3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Índice SHF 2020 T4</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t xml:space="preserve">Índice SHF 2022 T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2022 T3</t>
   </si>
   <si>
     <t xml:space="preserve">Varición MM</t>
@@ -887,34 +887,34 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>125.42</v>
+        <v>127.47</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>127.47</v>
+        <v>130.32</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>130.32</v>
+        <v>132.58</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>132.58</v>
+        <v>133.91</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>133.91</v>
+        <v>135.03</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>135.03</v>
+        <v>138.03</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>138.03</v>
+        <v>141.76</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>141.76</v>
+        <v>145.98</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0270231109179164</v>
+        <v>0.0297686230248306</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0692412128526172</v>
+        <v>0.0901351654096034</v>
       </c>
     </row>
     <row r="16">
@@ -922,34 +922,34 @@
         <v>67</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>128.75</v>
+        <v>131.76</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>131.76</v>
+        <v>135.89</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>135.89</v>
+        <v>139.59</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>139.59</v>
+        <v>142.53</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>142.53</v>
+        <v>145.15</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>145.15</v>
+        <v>149.26</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>149.26</v>
+        <v>154.64</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>154.64</v>
+        <v>160.71</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0360444861315825</v>
+        <v>0.0392524573202278</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.107815746113618</v>
+        <v>0.127552094295938</v>
       </c>
     </row>
     <row r="17">
@@ -957,34 +957,34 @@
         <v>68</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>129.3</v>
+        <v>133.02</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>133.02</v>
+        <v>137.8</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>137.8</v>
+        <v>142.19</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>142.19</v>
+        <v>146.06</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>146.06</v>
+        <v>149.65</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>149.65</v>
+        <v>154.58</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>154.58</v>
+        <v>160.73</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>160.73</v>
+        <v>167.92</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0397852244792338</v>
+        <v>0.0447334038449574</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.130388916238835</v>
+        <v>0.149664521429549</v>
       </c>
     </row>
     <row r="18">
@@ -992,34 +992,34 @@
         <v>69</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>127.27</v>
+        <v>130.26</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>130.26</v>
+        <v>134.5</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>134.5</v>
+        <v>138.35</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>138.35</v>
+        <v>141.39</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>141.39</v>
+        <v>144.12</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>144.12</v>
+        <v>147.49</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>147.49</v>
+        <v>152.07</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>152.07</v>
+        <v>157.37</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0310529527425587</v>
+        <v>0.034852370618794</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0991687748464041</v>
+        <v>0.113020722823396</v>
       </c>
     </row>
     <row r="19">
@@ -1027,34 +1027,34 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>124.17</v>
+        <v>126.53</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>126.53</v>
+        <v>130.31</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>130.31</v>
+        <v>133.29</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>133.29</v>
+        <v>135.28</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>135.28</v>
+        <v>136.92</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>136.92</v>
+        <v>139.65</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>139.65</v>
+        <v>143.56</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>143.56</v>
+        <v>148.66</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.027998567848192</v>
+        <v>0.035525215937587</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.0770500412634108</v>
+        <v>0.0989059727971615</v>
       </c>
     </row>
     <row r="20">
@@ -1062,34 +1062,34 @@
         <v>71</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>126.26</v>
+        <v>128.44</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>128.44</v>
+        <v>132.09</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>132.09</v>
+        <v>135.07</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>135.07</v>
+        <v>137.1</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>137.1</v>
+        <v>139.24</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>139.24</v>
+        <v>143.05</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>143.05</v>
+        <v>146.95</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>146.95</v>
+        <v>151.53</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0272631946871722</v>
+        <v>0.0311670636270842</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0879543940179166</v>
+        <v>0.105251641137856</v>
       </c>
     </row>
     <row r="21">
@@ -1097,34 +1097,34 @@
         <v>72</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>123.55</v>
+        <v>125.77</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>125.77</v>
+        <v>129.27</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>129.27</v>
+        <v>132.34</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>132.34</v>
+        <v>134.38</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>134.38</v>
+        <v>136.24</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>136.24</v>
+        <v>139</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>139</v>
+        <v>142.39</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>142.39</v>
+        <v>146.37</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.024388489208633</v>
+        <v>0.0279514010815367</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0759407586519569</v>
+        <v>0.089224586992112</v>
       </c>
     </row>
     <row r="22">
@@ -1132,34 +1132,34 @@
         <v>73</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>123.73</v>
+        <v>126.31</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>126.31</v>
+        <v>130.77</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>130.77</v>
+        <v>134.64</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>134.64</v>
+        <v>137.62</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>137.62</v>
+        <v>140.23</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>140.23</v>
+        <v>143.35</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>143.35</v>
+        <v>146.96</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>146.96</v>
+        <v>151.22</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.025183118242065</v>
+        <v>0.0289874795862819</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.0915032679738563</v>
+        <v>0.09882284551664</v>
       </c>
     </row>
     <row r="23">
@@ -1167,34 +1167,34 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>122.75</v>
+        <v>122.93</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>122.93</v>
+        <v>124.87</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>124.87</v>
+        <v>127.35</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>127.35</v>
+        <v>130.17</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>130.17</v>
+        <v>131.65</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>131.65</v>
+        <v>132.98</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>132.98</v>
+        <v>136</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>136</v>
+        <v>140.55</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0227101819822531</v>
+        <v>0.0334558823529412</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0679230467216334</v>
+        <v>0.0797418760082971</v>
       </c>
     </row>
     <row r="24">
@@ -1202,34 +1202,34 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>120.97</v>
+        <v>122.53</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>122.53</v>
+        <v>126.01</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>126.01</v>
+        <v>128.71</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>128.71</v>
+        <v>130.3</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>130.3</v>
+        <v>131.59</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>131.59</v>
+        <v>133.22</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>133.22</v>
+        <v>135.01</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>135.01</v>
+        <v>137.1</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0134364209578142</v>
+        <v>0.0154803347900156</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0489472457462512</v>
+        <v>0.0521872601688409</v>
       </c>
     </row>
     <row r="25">
@@ -1237,34 +1237,34 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>127.6</v>
+        <v>129.38</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>129.38</v>
+        <v>132.53</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>132.53</v>
+        <v>134.97</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>134.97</v>
+        <v>136.43</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>136.43</v>
+        <v>138.01</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>138.01</v>
+        <v>140.98</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>140.98</v>
+        <v>144.31</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>144.31</v>
+        <v>147.84</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0236203716839269</v>
+        <v>0.0244612292980388</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.0692005630880936</v>
+        <v>0.0836326321190353</v>
       </c>
     </row>
     <row r="26">
@@ -1272,34 +1272,34 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>121.28</v>
+        <v>123.11</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>123.11</v>
+        <v>127.05</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>127.05</v>
+        <v>130.66</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>130.66</v>
+        <v>133.53</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>133.53</v>
+        <v>136.17</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>136.17</v>
+        <v>139.68</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>139.68</v>
+        <v>143.97</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>143.97</v>
+        <v>149.96</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0307130584192439</v>
+        <v>0.0416058901159964</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.10186744221644</v>
+        <v>0.123043510821538</v>
       </c>
     </row>
     <row r="27">
@@ -1307,34 +1307,34 @@
         <v>78</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>120.79</v>
+        <v>121.96</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>121.96</v>
+        <v>125.08</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>125.08</v>
+        <v>127.54</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>127.54</v>
+        <v>128.75</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>128.75</v>
+        <v>129.87</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>129.87</v>
+        <v>132.23</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>132.23</v>
+        <v>135.13</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>135.13</v>
+        <v>138.95</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0219314830220072</v>
+        <v>0.0282690742248204</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0595107417280851</v>
+        <v>0.0792233009708736</v>
       </c>
     </row>
     <row r="28">
@@ -1342,34 +1342,34 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>133.9</v>
+        <v>136.66</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>136.66</v>
+        <v>140.72</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>140.72</v>
+        <v>144.06</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>144.06</v>
+        <v>146.92</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>146.92</v>
+        <v>148.62</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>148.62</v>
+        <v>151.77</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>151.77</v>
+        <v>156</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>156</v>
+        <v>161.06</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.0278711207748565</v>
+        <v>0.0324358974358974</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.0828821324448146</v>
+        <v>0.0962428532534714</v>
       </c>
     </row>
     <row r="29">
@@ -1377,34 +1377,34 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>121.92</v>
+        <v>123.24</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>123.24</v>
+        <v>126.46</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>126.46</v>
+        <v>129.22</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>129.22</v>
+        <v>130.82</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>130.82</v>
+        <v>132.28</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>132.28</v>
+        <v>134.32</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>134.32</v>
+        <v>136.51</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>136.51</v>
+        <v>139.41</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0163043478260869</v>
+        <v>0.0212438649183211</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0564154155703451</v>
+        <v>0.065662742699893</v>
       </c>
     </row>
     <row r="30">
@@ -1412,34 +1412,34 @@
         <v>81</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>125.19</v>
+        <v>126.56</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>126.56</v>
+        <v>131.11</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>131.11</v>
+        <v>135.28</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>135.28</v>
+        <v>138.36</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>138.36</v>
+        <v>141.45</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>141.45</v>
+        <v>145.59</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>145.59</v>
+        <v>150</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>150</v>
+        <v>155.38</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.030290541932825</v>
+        <v>0.0358666666666667</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.108811354228267</v>
+        <v>0.123012431338537</v>
       </c>
     </row>
     <row r="31">
@@ -1447,34 +1447,34 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>121.62</v>
+        <v>123.15</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>123.15</v>
+        <v>127.19</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>127.19</v>
+        <v>131.17</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>131.17</v>
+        <v>134.46</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>134.46</v>
+        <v>137.56</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>137.56</v>
+        <v>140.65</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>140.65</v>
+        <v>143.9</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>143.9</v>
+        <v>148.13</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>0.0231070031994312</v>
+        <v>0.0293954134815844</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>0.0970496302508197</v>
+        <v>0.101665922951063</v>
       </c>
     </row>
     <row r="32">
@@ -1482,34 +1482,34 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>128.81</v>
+        <v>131.88</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>131.88</v>
+        <v>136.53</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>136.53</v>
+        <v>140.68</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>140.68</v>
+        <v>144.47</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>144.47</v>
+        <v>148.24</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>148.24</v>
+        <v>153.13</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>153.13</v>
+        <v>158.72</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>158.72</v>
+        <v>165.23</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>0.0365049304512506</v>
+        <v>0.041015625</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>0.12823429058857</v>
+        <v>0.143697653492074</v>
       </c>
     </row>
     <row r="33">
@@ -1517,34 +1517,34 @@
         <v>84</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>128.96</v>
+        <v>131.26</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>131.26</v>
+        <v>134.98</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>134.98</v>
+        <v>138.02</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>138.02</v>
+        <v>140.13</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>140.13</v>
+        <v>142.25</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>142.25</v>
+        <v>145.65</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>145.65</v>
+        <v>149.29</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>149.29</v>
+        <v>153.63</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>0.0249914177823549</v>
+        <v>0.0290709357626098</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>0.0816548326329516</v>
+        <v>0.0963391136801541</v>
       </c>
     </row>
     <row r="34">
@@ -1552,34 +1552,34 @@
         <v>85</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>123.19</v>
+        <v>125.4</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>125.4</v>
+        <v>128.93</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>128.93</v>
+        <v>131.84</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>131.84</v>
+        <v>133.44</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>133.44</v>
+        <v>134.57</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>134.57</v>
+        <v>136.64</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>136.64</v>
+        <v>139.39</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>139.39</v>
+        <v>142.84</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>0.0201258782201406</v>
+        <v>0.0247506994762896</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.0572663834951455</v>
+        <v>0.070443645083933</v>
       </c>
     </row>
     <row r="35">
@@ -1587,34 +1587,34 @@
         <v>86</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>127.39</v>
+        <v>129.93</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>129.93</v>
+        <v>133.73</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>133.73</v>
+        <v>137.01</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>137.01</v>
+        <v>139.51</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>139.51</v>
+        <v>141.71</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>141.71</v>
+        <v>144.75</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>144.75</v>
+        <v>148.13</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>148.13</v>
+        <v>151.5</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.0233506044905007</v>
+        <v>0.0227502869101466</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.0811619589810963</v>
+        <v>0.0859436599526917</v>
       </c>
     </row>
     <row r="36">
@@ -1622,34 +1622,34 @@
         <v>87</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>123.61</v>
+        <v>125.22</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>125.22</v>
+        <v>128.68</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>128.68</v>
+        <v>131.68</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>131.68</v>
+        <v>133.58</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>133.58</v>
+        <v>135.37</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>135.37</v>
+        <v>138.13</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>138.13</v>
+        <v>141.52</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>141.52</v>
+        <v>146.09</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.0245420980236011</v>
+        <v>0.0322922555115883</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.074726609963548</v>
+        <v>0.0936517442730946</v>
       </c>
     </row>
     <row r="37">
@@ -1657,34 +1657,34 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>129.18</v>
+        <v>133.2</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>133.2</v>
+        <v>138.08</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>138.08</v>
+        <v>142.51</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>142.51</v>
+        <v>146.51</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>146.51</v>
+        <v>149.93</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>149.93</v>
+        <v>155.19</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>155.19</v>
+        <v>161.69</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>161.69</v>
+        <v>169.2</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>0.04188414201946</v>
+        <v>0.0464469045704743</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>0.134587046523051</v>
+        <v>0.154869974745751</v>
       </c>
     </row>
     <row r="38">
@@ -1692,34 +1692,34 @@
         <v>89</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>128.25</v>
+        <v>130.81</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>130.81</v>
+        <v>134.56</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>134.56</v>
+        <v>137.5</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>137.5</v>
+        <v>139.57</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>139.57</v>
+        <v>141.71</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>141.71</v>
+        <v>145.02</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>145.02</v>
+        <v>148.32</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>148.32</v>
+        <v>151.6</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>0.0227554820024822</v>
+        <v>0.0221143473570657</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>0.0786909090909091</v>
+        <v>0.0861933080174824</v>
       </c>
     </row>
     <row r="39">
@@ -1727,34 +1727,34 @@
         <v>90</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>129.44</v>
+        <v>132.41</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>132.41</v>
+        <v>136.62</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>136.62</v>
+        <v>140.11</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>140.11</v>
+        <v>142.95</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>142.95</v>
+        <v>145.87</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>145.87</v>
+        <v>150.59</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>150.59</v>
+        <v>156.31</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>156.31</v>
+        <v>163.2</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>0.0379839298758218</v>
+        <v>0.0440790736357237</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>0.115623438726715</v>
+        <v>0.141657922350472</v>
       </c>
     </row>
     <row r="40">
@@ -1762,34 +1762,34 @@
         <v>91</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>123.68</v>
+        <v>126.16</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>126.16</v>
+        <v>129.81</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>129.81</v>
+        <v>132.41</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>132.41</v>
+        <v>134.17</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>134.17</v>
+        <v>135.57</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>135.57</v>
+        <v>137.86</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>137.86</v>
+        <v>141.02</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>141.02</v>
+        <v>144.84</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>0.0229218047294357</v>
+        <v>0.0270883562615232</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.0650253002039123</v>
+        <v>0.0795259745099501</v>
       </c>
     </row>
     <row r="41">
@@ -1797,34 +1797,34 @@
         <v>92</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>122.7</v>
+        <v>124.42</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>124.42</v>
+        <v>127.38</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>127.38</v>
+        <v>129.68</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>129.68</v>
+        <v>130.84</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>130.84</v>
+        <v>131.93</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>131.93</v>
+        <v>134.15</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>134.15</v>
+        <v>137.17</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>137.17</v>
+        <v>140.88</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.0225121133060007</v>
+        <v>0.0270467303346213</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.0577575570635409</v>
+        <v>0.0767349434423723</v>
       </c>
     </row>
     <row r="42">
@@ -1832,34 +1832,34 @@
         <v>93</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>121.77</v>
+        <v>124.21</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>124.21</v>
+        <v>127.88</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>127.88</v>
+        <v>130.62</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>130.62</v>
+        <v>132.18</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>132.18</v>
+        <v>133.29</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>133.29</v>
+        <v>135.86</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>135.86</v>
+        <v>139.2</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>139.2</v>
+        <v>143.57</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.0245841307228027</v>
+        <v>0.0313936781609196</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.0656867248507118</v>
+        <v>0.0861703737327886</v>
       </c>
     </row>
     <row r="43">
@@ -1867,34 +1867,34 @@
         <v>94</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>119.15</v>
+        <v>121.1</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>121.1</v>
+        <v>124.55</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>124.55</v>
+        <v>127.11</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>127.11</v>
+        <v>128.58</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>128.58</v>
+        <v>129.63</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>129.63</v>
+        <v>131.74</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>131.74</v>
+        <v>134.54</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>134.54</v>
+        <v>138.28</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>0.0212539851222102</v>
+        <v>0.027798424260443</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>0.0584533081582881</v>
+        <v>0.075439415150101</v>
       </c>
     </row>
     <row r="44">
@@ -1902,34 +1902,34 @@
         <v>95</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>119.84</v>
+        <v>121.67</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>121.67</v>
+        <v>126.24</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>126.24</v>
+        <v>130.03</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>130.03</v>
+        <v>132.58</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>132.58</v>
+        <v>134.7</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>134.7</v>
+        <v>137.3</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>137.3</v>
+        <v>140.7</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>140.7</v>
+        <v>145.33</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>0.0247632920611798</v>
+        <v>0.0329068941009241</v>
       </c>
       <c r="K44" s="5" t="n">
-        <v>0.0820579866184725</v>
+        <v>0.0961683511841906</v>
       </c>
     </row>
     <row r="45">
@@ -1937,34 +1937,34 @@
         <v>96</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>126.57</v>
+        <v>129.09</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>129.09</v>
+        <v>132.56</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>132.56</v>
+        <v>135.58</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>135.58</v>
+        <v>137.88</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>137.88</v>
+        <v>139.82</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>139.82</v>
+        <v>142.94</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>142.94</v>
+        <v>146.98</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>146.98</v>
+        <v>151.64</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>0.0282636071078775</v>
+        <v>0.031704993876718</v>
       </c>
       <c r="K45" s="5" t="n">
-        <v>0.0840831981118157</v>
+        <v>0.099796924862199</v>
       </c>
     </row>
     <row r="46">
@@ -1972,34 +1972,34 @@
         <v>97</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>123.44</v>
+        <v>125.33</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>125.33</v>
+        <v>127.89</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>127.89</v>
+        <v>129.67</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>129.67</v>
+        <v>130.2</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>130.2</v>
+        <v>130.41</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>130.41</v>
+        <v>132.82</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>132.82</v>
+        <v>136.29</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>136.29</v>
+        <v>140.69</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>0.0261255834964613</v>
+        <v>0.0322841000807104</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.0510526721678106</v>
+        <v>0.0805683563748081</v>
       </c>
     </row>
   </sheetData>

--- a/tabuladoSHF.xlsx
+++ b/tabuladoSHF.xlsx
@@ -168,13 +168,13 @@
     <t xml:space="preserve">2017=100</t>
   </si>
   <si>
-    <t xml:space="preserve">2021 T3 - 2022 T3</t>
+    <t xml:space="preserve">2021 T4 - 2022 T4</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Trimestral</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: febrero 2022</t>
+    <t xml:space="preserve">Próxima actualización: mayo 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: SHF; Sociedad Hipotecaía Federal</t>
@@ -183,9 +183,6 @@
     <t xml:space="preserve">Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice SHF 2020 T4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Índice SHF 2021 T1</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t xml:space="preserve">Índice SHF 2022 T3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2022 T4</t>
   </si>
   <si>
     <t xml:space="preserve">Varición MM</t>
@@ -887,34 +887,34 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>127.47</v>
+        <v>130.32</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>130.32</v>
+        <v>132.58</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>132.58</v>
+        <v>133.91</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>133.91</v>
+        <v>135.03</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>135.03</v>
+        <v>138.03</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>138.03</v>
+        <v>141.76</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>141.76</v>
+        <v>145.98</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>145.98</v>
+        <v>149.33</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0297686230248306</v>
+        <v>0.0229483490889164</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0901351654096034</v>
+        <v>0.105902392061024</v>
       </c>
     </row>
     <row r="16">
@@ -922,34 +922,34 @@
         <v>67</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>131.76</v>
+        <v>135.89</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>135.89</v>
+        <v>139.59</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>139.59</v>
+        <v>142.53</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>142.53</v>
+        <v>145.15</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>145.15</v>
+        <v>149.26</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>149.26</v>
+        <v>154.64</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>154.64</v>
+        <v>160.71</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>160.71</v>
+        <v>166.18</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0392524573202278</v>
+        <v>0.034036463194574</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.127552094295938</v>
+        <v>0.144884602135722</v>
       </c>
     </row>
     <row r="17">
@@ -957,34 +957,34 @@
         <v>68</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>133.02</v>
+        <v>137.8</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>137.8</v>
+        <v>142.19</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>142.19</v>
+        <v>146.06</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>146.06</v>
+        <v>149.65</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>149.65</v>
+        <v>154.58</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>154.58</v>
+        <v>160.73</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>160.73</v>
+        <v>167.92</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>167.92</v>
+        <v>174.29</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0447334038449574</v>
+        <v>0.037934730824202</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.149664521429549</v>
+        <v>0.164650851987972</v>
       </c>
     </row>
     <row r="18">
@@ -992,34 +992,34 @@
         <v>69</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>130.26</v>
+        <v>134.5</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>134.5</v>
+        <v>138.35</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>138.35</v>
+        <v>141.39</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>141.39</v>
+        <v>144.12</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>144.12</v>
+        <v>147.49</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>147.49</v>
+        <v>152.07</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>152.07</v>
+        <v>157.37</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>157.37</v>
+        <v>161.49</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.034852370618794</v>
+        <v>0.0261803393276991</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.113020722823396</v>
+        <v>0.12052456286428</v>
       </c>
     </row>
     <row r="19">
@@ -1027,34 +1027,34 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>126.53</v>
+        <v>130.31</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>130.31</v>
+        <v>133.29</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>133.29</v>
+        <v>135.28</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>135.28</v>
+        <v>136.92</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>136.92</v>
+        <v>139.65</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>139.65</v>
+        <v>143.56</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>143.56</v>
+        <v>148.66</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>148.66</v>
+        <v>153.5</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.035525215937587</v>
+        <v>0.0325575137898562</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.0989059727971615</v>
+        <v>0.12109260882267</v>
       </c>
     </row>
     <row r="20">
@@ -1062,34 +1062,34 @@
         <v>71</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>128.44</v>
+        <v>132.09</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>132.09</v>
+        <v>135.07</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>135.07</v>
+        <v>137.1</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>137.1</v>
+        <v>139.24</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>139.24</v>
+        <v>143.05</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>143.05</v>
+        <v>146.95</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>146.95</v>
+        <v>151.53</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>151.53</v>
+        <v>155.49</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0311670636270842</v>
+        <v>0.0261334389229857</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.105251641137856</v>
+        <v>0.116704969836254</v>
       </c>
     </row>
     <row r="21">
@@ -1097,34 +1097,34 @@
         <v>72</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>125.77</v>
+        <v>129.27</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>129.27</v>
+        <v>132.34</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>132.34</v>
+        <v>134.38</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>134.38</v>
+        <v>136.24</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>136.24</v>
+        <v>139</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>139</v>
+        <v>142.39</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>142.39</v>
+        <v>146.37</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>146.37</v>
+        <v>149.07</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0279514010815367</v>
+        <v>0.0184464029514244</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.089224586992112</v>
+        <v>0.0941720493247209</v>
       </c>
     </row>
     <row r="22">
@@ -1132,34 +1132,34 @@
         <v>73</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>126.31</v>
+        <v>130.77</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>130.77</v>
+        <v>134.64</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>134.64</v>
+        <v>137.62</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>137.62</v>
+        <v>140.23</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>140.23</v>
+        <v>143.35</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>143.35</v>
+        <v>146.96</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>146.96</v>
+        <v>151.22</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>151.22</v>
+        <v>154.17</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.0289874795862819</v>
+        <v>0.0195080015870917</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.09882284551664</v>
+        <v>0.0994081152392499</v>
       </c>
     </row>
     <row r="23">
@@ -1167,34 +1167,34 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>122.93</v>
+        <v>124.87</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>124.87</v>
+        <v>127.35</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>127.35</v>
+        <v>130.17</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>130.17</v>
+        <v>131.65</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>131.65</v>
+        <v>132.98</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>132.98</v>
+        <v>136</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>136</v>
+        <v>140.55</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>140.55</v>
+        <v>144.31</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0334558823529412</v>
+        <v>0.0267520455353967</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0797418760082971</v>
+        <v>0.0961640714014431</v>
       </c>
     </row>
     <row r="24">
@@ -1202,34 +1202,34 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>122.53</v>
+        <v>126.01</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>126.01</v>
+        <v>128.71</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>128.71</v>
+        <v>130.3</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>130.3</v>
+        <v>131.59</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>131.59</v>
+        <v>133.22</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>133.22</v>
+        <v>135.01</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>135.01</v>
+        <v>137.1</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>137.1</v>
+        <v>137.81</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0154803347900156</v>
+        <v>0.0051787016776077</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0521872601688409</v>
+        <v>0.0472680294855232</v>
       </c>
     </row>
     <row r="25">
@@ -1237,34 +1237,34 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>129.38</v>
+        <v>132.53</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>132.53</v>
+        <v>134.97</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>134.97</v>
+        <v>136.43</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>136.43</v>
+        <v>138.01</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>138.01</v>
+        <v>140.98</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>140.98</v>
+        <v>144.31</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>144.31</v>
+        <v>147.84</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>147.84</v>
+        <v>150.22</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0244612292980388</v>
+        <v>0.0160984848484849</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.0836326321190353</v>
+        <v>0.0884718498659518</v>
       </c>
     </row>
     <row r="26">
@@ -1272,34 +1272,34 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>123.11</v>
+        <v>127.05</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>127.05</v>
+        <v>130.66</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>130.66</v>
+        <v>133.53</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>133.53</v>
+        <v>136.17</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>136.17</v>
+        <v>139.68</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>139.68</v>
+        <v>143.97</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>143.97</v>
+        <v>149.96</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>149.96</v>
+        <v>155.32</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0416058901159964</v>
+        <v>0.0357428647639368</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.123043510821538</v>
+        <v>0.140633032239113</v>
       </c>
     </row>
     <row r="27">
@@ -1307,34 +1307,34 @@
         <v>78</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>121.96</v>
+        <v>125.08</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>125.08</v>
+        <v>127.54</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>127.54</v>
+        <v>128.75</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>128.75</v>
+        <v>129.87</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>129.87</v>
+        <v>132.23</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>132.23</v>
+        <v>135.13</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>135.13</v>
+        <v>138.95</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>138.95</v>
+        <v>142.31</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0282690742248204</v>
+        <v>0.0241813602015115</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0792233009708736</v>
+        <v>0.0957880957880957</v>
       </c>
     </row>
     <row r="28">
@@ -1342,34 +1342,34 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>136.66</v>
+        <v>140.72</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>140.72</v>
+        <v>144.06</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>144.06</v>
+        <v>146.92</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>146.92</v>
+        <v>148.62</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>148.62</v>
+        <v>151.77</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>151.77</v>
+        <v>156</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>156</v>
+        <v>161.06</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>161.06</v>
+        <v>165.48</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.0324358974358974</v>
+        <v>0.0274431888737117</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.0962428532534714</v>
+        <v>0.113443681873234</v>
       </c>
     </row>
     <row r="29">
@@ -1377,34 +1377,34 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>123.24</v>
+        <v>126.46</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>126.46</v>
+        <v>129.22</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>129.22</v>
+        <v>130.82</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>130.82</v>
+        <v>132.28</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>132.28</v>
+        <v>134.32</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>134.32</v>
+        <v>136.51</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>136.51</v>
+        <v>139.41</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>139.41</v>
+        <v>140.34</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0212438649183211</v>
+        <v>0.00667097051861432</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.065662742699893</v>
+        <v>0.0609313577260358</v>
       </c>
     </row>
     <row r="30">
@@ -1412,34 +1412,34 @@
         <v>81</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>126.56</v>
+        <v>131.11</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>131.11</v>
+        <v>135.28</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>135.28</v>
+        <v>138.36</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>138.36</v>
+        <v>141.45</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>141.45</v>
+        <v>145.59</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>145.59</v>
+        <v>150</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>150</v>
+        <v>155.38</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>155.38</v>
+        <v>160.13</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0358666666666667</v>
+        <v>0.0305702149568798</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.123012431338537</v>
+        <v>0.132060798868858</v>
       </c>
     </row>
     <row r="31">
@@ -1447,34 +1447,34 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>123.15</v>
+        <v>127.19</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>127.19</v>
+        <v>131.17</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>131.17</v>
+        <v>134.46</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>134.46</v>
+        <v>137.56</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>137.56</v>
+        <v>140.65</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>140.65</v>
+        <v>143.9</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>143.9</v>
+        <v>148.13</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>148.13</v>
+        <v>149.95</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>0.0293954134815844</v>
+        <v>0.0122865050968743</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>0.101665922951063</v>
+        <v>0.0900697877289909</v>
       </c>
     </row>
     <row r="32">
@@ -1482,34 +1482,34 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>131.88</v>
+        <v>136.53</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>136.53</v>
+        <v>140.68</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>140.68</v>
+        <v>144.47</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>144.47</v>
+        <v>148.24</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>148.24</v>
+        <v>153.13</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>153.13</v>
+        <v>158.72</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>158.72</v>
+        <v>165.23</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>165.23</v>
+        <v>170.46</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>0.041015625</v>
+        <v>0.0316528475458453</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>0.143697653492074</v>
+        <v>0.14989206691851</v>
       </c>
     </row>
     <row r="33">
@@ -1517,34 +1517,34 @@
         <v>84</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>131.26</v>
+        <v>134.98</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>134.98</v>
+        <v>138.02</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>138.02</v>
+        <v>140.13</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>140.13</v>
+        <v>142.25</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>142.25</v>
+        <v>145.65</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>145.65</v>
+        <v>149.29</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>149.29</v>
+        <v>153.63</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>153.63</v>
+        <v>157.05</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>0.0290709357626098</v>
+        <v>0.0222612770943176</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>0.0963391136801541</v>
+        <v>0.104042179261863</v>
       </c>
     </row>
     <row r="34">
@@ -1552,34 +1552,34 @@
         <v>85</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>125.4</v>
+        <v>128.93</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>128.93</v>
+        <v>131.84</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>131.84</v>
+        <v>133.44</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>133.44</v>
+        <v>134.57</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>134.57</v>
+        <v>136.64</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>136.64</v>
+        <v>139.39</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>139.39</v>
+        <v>142.84</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>142.84</v>
+        <v>145.37</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>0.0247506994762896</v>
+        <v>0.0177121254550545</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.070443645083933</v>
+        <v>0.080255629040648</v>
       </c>
     </row>
     <row r="35">
@@ -1587,34 +1587,34 @@
         <v>86</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>129.93</v>
+        <v>133.73</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>133.73</v>
+        <v>137.01</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>137.01</v>
+        <v>139.51</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>139.51</v>
+        <v>141.71</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>141.71</v>
+        <v>144.75</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>144.75</v>
+        <v>148.13</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>148.13</v>
+        <v>151.5</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>151.5</v>
+        <v>152.75</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.0227502869101466</v>
+        <v>0.00825082508250818</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.0859436599526917</v>
+        <v>0.0779055818220309</v>
       </c>
     </row>
     <row r="36">
@@ -1622,34 +1622,34 @@
         <v>87</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>125.22</v>
+        <v>128.68</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>128.68</v>
+        <v>131.68</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>131.68</v>
+        <v>133.58</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>133.58</v>
+        <v>135.37</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>135.37</v>
+        <v>138.13</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>138.13</v>
+        <v>141.52</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>141.52</v>
+        <v>146.09</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>146.09</v>
+        <v>149.66</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.0322922555115883</v>
+        <v>0.0244369908960229</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.0936517442730946</v>
+        <v>0.10556253231883</v>
       </c>
     </row>
     <row r="37">
@@ -1657,34 +1657,34 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>133.2</v>
+        <v>138.08</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>138.08</v>
+        <v>142.51</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>142.51</v>
+        <v>146.51</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>146.51</v>
+        <v>149.93</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>149.93</v>
+        <v>155.19</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>155.19</v>
+        <v>161.69</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>161.69</v>
+        <v>169.2</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>169.2</v>
+        <v>175.12</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>0.0464469045704743</v>
+        <v>0.0349881796690308</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>0.154869974745751</v>
+        <v>0.168011738811445</v>
       </c>
     </row>
     <row r="38">
@@ -1692,34 +1692,34 @@
         <v>89</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>130.81</v>
+        <v>134.56</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>134.56</v>
+        <v>137.5</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>137.5</v>
+        <v>139.57</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>139.57</v>
+        <v>141.71</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>141.71</v>
+        <v>145.02</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>145.02</v>
+        <v>148.32</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>148.32</v>
+        <v>151.6</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>151.6</v>
+        <v>152.78</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>0.0221143473570657</v>
+        <v>0.00778364116094998</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>0.0861933080174824</v>
+        <v>0.0781172817726341</v>
       </c>
     </row>
     <row r="39">
@@ -1727,34 +1727,34 @@
         <v>90</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>132.41</v>
+        <v>136.62</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>136.62</v>
+        <v>140.11</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>140.11</v>
+        <v>142.95</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>142.95</v>
+        <v>145.87</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>145.87</v>
+        <v>150.59</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>150.59</v>
+        <v>156.31</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>156.31</v>
+        <v>163.2</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>163.2</v>
+        <v>169.49</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>0.0440790736357237</v>
+        <v>0.0385416666666667</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>0.141657922350472</v>
+        <v>0.161925001713855</v>
       </c>
     </row>
     <row r="40">
@@ -1762,34 +1762,34 @@
         <v>91</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>126.16</v>
+        <v>129.81</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>129.81</v>
+        <v>132.41</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>132.41</v>
+        <v>134.17</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>134.17</v>
+        <v>135.57</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>135.57</v>
+        <v>137.86</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>137.86</v>
+        <v>141.02</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>141.02</v>
+        <v>144.84</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>144.84</v>
+        <v>147.89</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>0.0270883562615232</v>
+        <v>0.0210577188621925</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.0795259745099501</v>
+        <v>0.0908755624400679</v>
       </c>
     </row>
     <row r="41">
@@ -1797,34 +1797,34 @@
         <v>92</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>124.42</v>
+        <v>127.38</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>127.38</v>
+        <v>129.68</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>129.68</v>
+        <v>130.84</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>130.84</v>
+        <v>131.93</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>131.93</v>
+        <v>134.15</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>134.15</v>
+        <v>137.17</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>137.17</v>
+        <v>140.88</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>140.88</v>
+        <v>143.88</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.0270467303346213</v>
+        <v>0.0212947189097104</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.0767349434423723</v>
+        <v>0.0905783369968922</v>
       </c>
     </row>
     <row r="42">
@@ -1832,34 +1832,34 @@
         <v>93</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>124.21</v>
+        <v>127.88</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>127.88</v>
+        <v>130.62</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>130.62</v>
+        <v>132.18</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>132.18</v>
+        <v>133.29</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>133.29</v>
+        <v>135.86</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>135.86</v>
+        <v>139.2</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>139.2</v>
+        <v>143.57</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>143.57</v>
+        <v>147.45</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.0313936781609196</v>
+        <v>0.0270251445288012</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.0861703737327886</v>
+        <v>0.106234526221022</v>
       </c>
     </row>
     <row r="43">
@@ -1867,34 +1867,34 @@
         <v>94</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>121.1</v>
+        <v>124.55</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>124.55</v>
+        <v>127.11</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>127.11</v>
+        <v>128.58</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>128.58</v>
+        <v>129.63</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>129.63</v>
+        <v>131.74</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>131.74</v>
+        <v>134.54</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>134.54</v>
+        <v>138.28</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>138.28</v>
+        <v>141.62</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>0.027798424260443</v>
+        <v>0.0241538906566388</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>0.075439415150101</v>
+        <v>0.0924940214456531</v>
       </c>
     </row>
     <row r="44">
@@ -1902,34 +1902,34 @@
         <v>95</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>121.67</v>
+        <v>126.24</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>126.24</v>
+        <v>130.03</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>130.03</v>
+        <v>132.58</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>132.58</v>
+        <v>134.7</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>134.7</v>
+        <v>137.3</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>137.3</v>
+        <v>140.7</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>140.7</v>
+        <v>145.33</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>145.33</v>
+        <v>149.28</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>0.0329068941009241</v>
+        <v>0.0271795224661115</v>
       </c>
       <c r="K44" s="5" t="n">
-        <v>0.0961683511841906</v>
+        <v>0.108240534521158</v>
       </c>
     </row>
     <row r="45">
@@ -1937,34 +1937,34 @@
         <v>96</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>129.09</v>
+        <v>132.56</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>132.56</v>
+        <v>135.58</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>135.58</v>
+        <v>137.88</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>137.88</v>
+        <v>139.82</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>139.82</v>
+        <v>142.94</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>142.94</v>
+        <v>146.98</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>146.98</v>
+        <v>151.64</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>151.64</v>
+        <v>154.89</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>0.031704993876718</v>
+        <v>0.0214323397520444</v>
       </c>
       <c r="K45" s="5" t="n">
-        <v>0.099796924862199</v>
+        <v>0.107781433271349</v>
       </c>
     </row>
     <row r="46">
@@ -1972,34 +1972,34 @@
         <v>97</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>125.33</v>
+        <v>127.89</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>127.89</v>
+        <v>129.67</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>129.67</v>
+        <v>130.2</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>130.2</v>
+        <v>130.41</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>130.41</v>
+        <v>132.82</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>132.82</v>
+        <v>136.29</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>136.29</v>
+        <v>140.69</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>140.69</v>
+        <v>144.64</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>0.0322841000807104</v>
+        <v>0.028075911578648</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.0805683563748081</v>
+        <v>0.109117398972471</v>
       </c>
     </row>
   </sheetData>

--- a/tabuladoSHF.xlsx
+++ b/tabuladoSHF.xlsx
@@ -168,13 +168,13 @@
     <t xml:space="preserve">2017=100</t>
   </si>
   <si>
-    <t xml:space="preserve">2021 T4 - 2022 T4</t>
+    <t xml:space="preserve">2021 T4 - 2023 T1</t>
   </si>
   <si>
     <t xml:space="preserve">Periodicidad Trimestral</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: mayo 2023</t>
+    <t xml:space="preserve">Próxima actualización: agosto 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: SHF; Sociedad Hipotecaía Federal</t>
@@ -183,9 +183,6 @@
     <t xml:space="preserve">Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice SHF 2021 T1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Índice SHF 2021 T2</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t xml:space="preserve">Índice SHF 2022 T4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2023 T1</t>
   </si>
   <si>
     <t xml:space="preserve">Varición MM</t>
@@ -887,34 +887,34 @@
         <v>66</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>130.32</v>
+        <v>132.58</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>132.58</v>
+        <v>133.91</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>133.91</v>
+        <v>135.03</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>135.03</v>
+        <v>138.03</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>138.03</v>
+        <v>141.76</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>141.76</v>
+        <v>145.98</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>145.98</v>
+        <v>149.33</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>149.33</v>
+        <v>154.11</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0229483490889164</v>
+        <v>0.03200964307239</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.105902392061024</v>
+        <v>0.116496413823082</v>
       </c>
     </row>
     <row r="16">
@@ -922,34 +922,34 @@
         <v>67</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>135.89</v>
+        <v>139.59</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>139.59</v>
+        <v>142.53</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>142.53</v>
+        <v>145.15</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>145.15</v>
+        <v>149.26</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>149.26</v>
+        <v>154.64</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>154.64</v>
+        <v>160.71</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>160.71</v>
+        <v>166.18</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>166.18</v>
+        <v>172.24</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.034036463194574</v>
+        <v>0.0364664821278133</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.144884602135722</v>
+        <v>0.153959533699585</v>
       </c>
     </row>
     <row r="17">
@@ -957,34 +957,34 @@
         <v>68</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>137.8</v>
+        <v>142.19</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>142.19</v>
+        <v>146.06</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>146.06</v>
+        <v>149.65</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>149.65</v>
+        <v>154.58</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>154.58</v>
+        <v>160.73</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>160.73</v>
+        <v>167.92</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>167.92</v>
+        <v>174.29</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>174.29</v>
+        <v>182.28</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.037934730824202</v>
+        <v>0.0458431350048769</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.164650851987972</v>
+        <v>0.179195238711347</v>
       </c>
     </row>
     <row r="18">
@@ -992,34 +992,34 @@
         <v>69</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>134.5</v>
+        <v>138.35</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>138.35</v>
+        <v>141.39</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>141.39</v>
+        <v>144.12</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>144.12</v>
+        <v>147.49</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>147.49</v>
+        <v>152.07</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>152.07</v>
+        <v>157.37</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>157.37</v>
+        <v>161.49</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>161.49</v>
+        <v>166.53</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0261803393276991</v>
+        <v>0.0312093628088426</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.12052456286428</v>
+        <v>0.129093497864262</v>
       </c>
     </row>
     <row r="19">
@@ -1027,34 +1027,34 @@
         <v>70</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>130.31</v>
+        <v>133.29</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>133.29</v>
+        <v>135.28</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>135.28</v>
+        <v>136.92</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>136.92</v>
+        <v>139.65</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>139.65</v>
+        <v>143.56</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>143.56</v>
+        <v>148.66</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>148.66</v>
+        <v>153.5</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>153.5</v>
+        <v>158.89</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0325575137898562</v>
+        <v>0.0351140065146578</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.12109260882267</v>
+        <v>0.137773003938417</v>
       </c>
     </row>
     <row r="20">
@@ -1062,34 +1062,34 @@
         <v>71</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>132.09</v>
+        <v>135.07</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>135.07</v>
+        <v>137.1</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>137.1</v>
+        <v>139.24</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>139.24</v>
+        <v>143.05</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>143.05</v>
+        <v>146.95</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>146.95</v>
+        <v>151.53</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>151.53</v>
+        <v>155.49</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>155.49</v>
+        <v>160.3</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0261334389229857</v>
+        <v>0.0309344652389221</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.116704969836254</v>
+        <v>0.120587207270185</v>
       </c>
     </row>
     <row r="21">
@@ -1097,34 +1097,34 @@
         <v>72</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>129.27</v>
+        <v>132.34</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>132.34</v>
+        <v>134.38</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>134.38</v>
+        <v>136.24</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>136.24</v>
+        <v>139</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>139</v>
+        <v>142.39</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>142.39</v>
+        <v>146.37</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>146.37</v>
+        <v>149.07</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>149.07</v>
+        <v>153.68</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0184464029514244</v>
+        <v>0.0309250687596432</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0941720493247209</v>
+        <v>0.105611510791367</v>
       </c>
     </row>
     <row r="22">
@@ -1132,34 +1132,34 @@
         <v>73</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>130.77</v>
+        <v>134.64</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>134.64</v>
+        <v>137.62</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>137.62</v>
+        <v>140.23</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>140.23</v>
+        <v>143.35</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>143.35</v>
+        <v>146.96</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>146.96</v>
+        <v>151.22</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>151.22</v>
+        <v>154.17</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>154.17</v>
+        <v>159.34</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.0195080015870917</v>
+        <v>0.0335344100668096</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.0994081152392499</v>
+        <v>0.111545169166376</v>
       </c>
     </row>
     <row r="23">
@@ -1167,34 +1167,34 @@
         <v>74</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>124.87</v>
+        <v>127.35</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>127.35</v>
+        <v>130.17</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>130.17</v>
+        <v>131.65</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>131.65</v>
+        <v>132.98</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>132.98</v>
+        <v>136</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>136</v>
+        <v>140.55</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>140.55</v>
+        <v>144.31</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>144.31</v>
+        <v>150.37</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0267520455353967</v>
+        <v>0.0419929318827523</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0961640714014431</v>
+        <v>0.130771544593172</v>
       </c>
     </row>
     <row r="24">
@@ -1202,34 +1202,34 @@
         <v>75</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>126.01</v>
+        <v>128.71</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>128.71</v>
+        <v>130.3</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>130.3</v>
+        <v>131.59</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>131.59</v>
+        <v>133.22</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>133.22</v>
+        <v>135.01</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>135.01</v>
+        <v>137.1</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>137.1</v>
+        <v>137.81</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>137.81</v>
+        <v>141.75</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0051787016776077</v>
+        <v>0.0285900878020462</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0472680294855232</v>
+        <v>0.0640294250112596</v>
       </c>
     </row>
     <row r="25">
@@ -1237,34 +1237,34 @@
         <v>76</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>132.53</v>
+        <v>134.97</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>134.97</v>
+        <v>136.43</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>136.43</v>
+        <v>138.01</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>138.01</v>
+        <v>140.98</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>140.98</v>
+        <v>144.31</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>144.31</v>
+        <v>147.84</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>147.84</v>
+        <v>150.22</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>150.22</v>
+        <v>154</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0160984848484849</v>
+        <v>0.0251630941286114</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.0884718498659518</v>
+        <v>0.092353525322741</v>
       </c>
     </row>
     <row r="26">
@@ -1272,34 +1272,34 @@
         <v>77</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>127.05</v>
+        <v>130.66</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>130.66</v>
+        <v>133.53</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>133.53</v>
+        <v>136.17</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>136.17</v>
+        <v>139.68</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>139.68</v>
+        <v>143.97</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>143.97</v>
+        <v>149.96</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>149.96</v>
+        <v>155.32</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>155.32</v>
+        <v>161</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0357428647639368</v>
+        <v>0.0365696626319856</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.140633032239113</v>
+        <v>0.152634593356243</v>
       </c>
     </row>
     <row r="27">
@@ -1307,34 +1307,34 @@
         <v>78</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>125.08</v>
+        <v>127.54</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>127.54</v>
+        <v>128.75</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>128.75</v>
+        <v>129.87</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>129.87</v>
+        <v>132.23</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>132.23</v>
+        <v>135.13</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>135.13</v>
+        <v>138.95</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>138.95</v>
+        <v>142.31</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>142.31</v>
+        <v>146.08</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0241813602015115</v>
+        <v>0.0264914623006114</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0957880957880957</v>
+        <v>0.104741737880965</v>
       </c>
     </row>
     <row r="28">
@@ -1342,34 +1342,34 @@
         <v>79</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>140.72</v>
+        <v>144.06</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>144.06</v>
+        <v>146.92</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>146.92</v>
+        <v>148.62</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>148.62</v>
+        <v>151.77</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>151.77</v>
+        <v>156</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>156</v>
+        <v>161.06</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>161.06</v>
+        <v>165.48</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>165.48</v>
+        <v>171.18</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.0274431888737117</v>
+        <v>0.0344452501812909</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.113443681873234</v>
+        <v>0.127890887527179</v>
       </c>
     </row>
     <row r="29">
@@ -1377,34 +1377,34 @@
         <v>80</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>126.46</v>
+        <v>129.22</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>129.22</v>
+        <v>130.82</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>130.82</v>
+        <v>132.28</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>132.28</v>
+        <v>134.32</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>134.32</v>
+        <v>136.51</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>136.51</v>
+        <v>139.41</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>139.41</v>
+        <v>140.34</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>140.34</v>
+        <v>143.3</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.00667097051861432</v>
+        <v>0.0210916346016816</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0609313577260358</v>
+        <v>0.0668552709946397</v>
       </c>
     </row>
     <row r="30">
@@ -1412,34 +1412,34 @@
         <v>81</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>131.11</v>
+        <v>135.28</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>135.28</v>
+        <v>138.36</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>138.36</v>
+        <v>141.45</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>141.45</v>
+        <v>145.59</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>145.59</v>
+        <v>150</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>150</v>
+        <v>155.38</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>155.38</v>
+        <v>160.13</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>160.13</v>
+        <v>164.17</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0305702149568798</v>
+        <v>0.0252295010304127</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.132060798868858</v>
+        <v>0.127618655127413</v>
       </c>
     </row>
     <row r="31">
@@ -1447,34 +1447,34 @@
         <v>82</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>127.19</v>
+        <v>131.17</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>131.17</v>
+        <v>134.46</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>134.46</v>
+        <v>137.56</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>137.56</v>
+        <v>140.65</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>140.65</v>
+        <v>143.9</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>143.9</v>
+        <v>148.13</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>148.13</v>
+        <v>149.95</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>149.95</v>
+        <v>153.33</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>0.0122865050968743</v>
+        <v>0.0225408469489832</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>0.0900697877289909</v>
+        <v>0.0901528617134733</v>
       </c>
     </row>
     <row r="32">
@@ -1482,34 +1482,34 @@
         <v>83</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>136.53</v>
+        <v>140.68</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>140.68</v>
+        <v>144.47</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>144.47</v>
+        <v>148.24</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>148.24</v>
+        <v>153.13</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>153.13</v>
+        <v>158.72</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>158.72</v>
+        <v>165.23</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>165.23</v>
+        <v>170.46</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>170.46</v>
+        <v>176.23</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>0.0316528475458453</v>
+        <v>0.0338495834799952</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>0.14989206691851</v>
+        <v>0.150852217070463</v>
       </c>
     </row>
     <row r="33">
@@ -1517,34 +1517,34 @@
         <v>84</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>134.98</v>
+        <v>138.02</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>138.02</v>
+        <v>140.13</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>140.13</v>
+        <v>142.25</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>142.25</v>
+        <v>145.65</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>145.65</v>
+        <v>149.29</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>149.29</v>
+        <v>153.63</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>153.63</v>
+        <v>157.05</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>157.05</v>
+        <v>161.87</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>0.0222612770943176</v>
+        <v>0.0306908627825533</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>0.104042179261863</v>
+        <v>0.111362856162032</v>
       </c>
     </row>
     <row r="34">
@@ -1552,34 +1552,34 @@
         <v>85</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>128.93</v>
+        <v>131.84</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>131.84</v>
+        <v>133.44</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>133.44</v>
+        <v>134.57</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>134.57</v>
+        <v>136.64</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>136.64</v>
+        <v>139.39</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>139.39</v>
+        <v>142.84</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>142.84</v>
+        <v>145.37</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>145.37</v>
+        <v>149.23</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>0.0177121254550545</v>
+        <v>0.0265529338928252</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.080255629040648</v>
+        <v>0.0921399297423888</v>
       </c>
     </row>
     <row r="35">
@@ -1587,34 +1587,34 @@
         <v>86</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>133.73</v>
+        <v>137.01</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>137.01</v>
+        <v>139.51</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>139.51</v>
+        <v>141.71</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>141.71</v>
+        <v>144.75</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>144.75</v>
+        <v>148.13</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>148.13</v>
+        <v>151.5</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>151.5</v>
+        <v>152.75</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>152.75</v>
+        <v>155.61</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.00825082508250818</v>
+        <v>0.0187234042553193</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.0779055818220309</v>
+        <v>0.0750259067357515</v>
       </c>
     </row>
     <row r="36">
@@ -1622,34 +1622,34 @@
         <v>87</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>128.68</v>
+        <v>131.68</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>131.68</v>
+        <v>133.58</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>133.58</v>
+        <v>135.37</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>135.37</v>
+        <v>138.13</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>138.13</v>
+        <v>141.52</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>141.52</v>
+        <v>146.09</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>146.09</v>
+        <v>149.66</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>149.66</v>
+        <v>155.97</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.0244369908960229</v>
+        <v>0.0421622343979688</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.10556253231883</v>
+        <v>0.129153695793818</v>
       </c>
     </row>
     <row r="37">
@@ -1657,34 +1657,34 @@
         <v>88</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>138.08</v>
+        <v>142.51</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>142.51</v>
+        <v>146.51</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>146.51</v>
+        <v>149.93</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>149.93</v>
+        <v>155.19</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>155.19</v>
+        <v>161.69</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>161.69</v>
+        <v>169.2</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>169.2</v>
+        <v>175.12</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>175.12</v>
+        <v>181.79</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>0.0349881796690308</v>
+        <v>0.0380881681132936</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>0.168011738811445</v>
+        <v>0.171402796571944</v>
       </c>
     </row>
     <row r="38">
@@ -1692,34 +1692,34 @@
         <v>89</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>134.56</v>
+        <v>137.5</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>137.5</v>
+        <v>139.57</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>139.57</v>
+        <v>141.71</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>141.71</v>
+        <v>145.02</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>145.02</v>
+        <v>148.32</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>148.32</v>
+        <v>151.6</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>151.6</v>
+        <v>152.78</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>152.78</v>
+        <v>156.16</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>0.00778364116094998</v>
+        <v>0.02212331456997</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>0.0781172817726341</v>
+        <v>0.076816990759895</v>
       </c>
     </row>
     <row r="39">
@@ -1727,34 +1727,34 @@
         <v>90</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>136.62</v>
+        <v>140.11</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>140.11</v>
+        <v>142.95</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>142.95</v>
+        <v>145.87</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>145.87</v>
+        <v>150.59</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>150.59</v>
+        <v>156.31</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>156.31</v>
+        <v>163.2</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>163.2</v>
+        <v>169.49</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>169.49</v>
+        <v>175.49</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>0.0385416666666667</v>
+        <v>0.0354003186028675</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>0.161925001713855</v>
+        <v>0.165349624809084</v>
       </c>
     </row>
     <row r="40">
@@ -1762,34 +1762,34 @@
         <v>91</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>129.81</v>
+        <v>132.41</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>132.41</v>
+        <v>134.17</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>134.17</v>
+        <v>135.57</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>135.57</v>
+        <v>137.86</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>137.86</v>
+        <v>141.02</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>141.02</v>
+        <v>144.84</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>144.84</v>
+        <v>147.89</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>147.89</v>
+        <v>153.69</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>0.0210577188621925</v>
+        <v>0.0392183379538846</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.0908755624400679</v>
+        <v>0.114826635717394</v>
       </c>
     </row>
     <row r="41">
@@ -1797,34 +1797,34 @@
         <v>92</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>127.38</v>
+        <v>129.68</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>129.68</v>
+        <v>130.84</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>130.84</v>
+        <v>131.93</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>131.93</v>
+        <v>134.15</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>134.15</v>
+        <v>137.17</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>137.17</v>
+        <v>140.88</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>140.88</v>
+        <v>143.88</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>143.88</v>
+        <v>148.72</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.0212947189097104</v>
+        <v>0.0336391437308869</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.0905783369968922</v>
+        <v>0.108609765188222</v>
       </c>
     </row>
     <row r="42">
@@ -1832,34 +1832,34 @@
         <v>93</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>127.88</v>
+        <v>130.62</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>130.62</v>
+        <v>132.18</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>132.18</v>
+        <v>133.29</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>133.29</v>
+        <v>135.86</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>135.86</v>
+        <v>139.2</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>139.2</v>
+        <v>143.57</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>143.57</v>
+        <v>147.45</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>147.45</v>
+        <v>151.65</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.0270251445288012</v>
+        <v>0.0284842319430316</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.106234526221022</v>
+        <v>0.116222582069778</v>
       </c>
     </row>
     <row r="43">
@@ -1867,34 +1867,34 @@
         <v>94</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>124.55</v>
+        <v>127.11</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>127.11</v>
+        <v>128.58</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>128.58</v>
+        <v>129.63</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>129.63</v>
+        <v>131.74</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>131.74</v>
+        <v>134.54</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>134.54</v>
+        <v>138.28</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>138.28</v>
+        <v>141.62</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>141.62</v>
+        <v>144.29</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>0.0241538906566388</v>
+        <v>0.0188532693122438</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>0.0924940214456531</v>
+        <v>0.0952633976013357</v>
       </c>
     </row>
     <row r="44">
@@ -1902,34 +1902,34 @@
         <v>95</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>126.24</v>
+        <v>130.03</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>130.03</v>
+        <v>132.58</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>132.58</v>
+        <v>134.7</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>134.7</v>
+        <v>137.3</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>137.3</v>
+        <v>140.7</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>140.7</v>
+        <v>145.33</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>145.33</v>
+        <v>149.28</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>149.28</v>
+        <v>153.47</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>0.0271795224661115</v>
+        <v>0.0280680600214362</v>
       </c>
       <c r="K44" s="5" t="n">
-        <v>0.108240534521158</v>
+        <v>0.117771303714494</v>
       </c>
     </row>
     <row r="45">
@@ -1937,34 +1937,34 @@
         <v>96</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>132.56</v>
+        <v>135.58</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>135.58</v>
+        <v>137.88</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>137.88</v>
+        <v>139.82</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>139.82</v>
+        <v>142.94</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>142.94</v>
+        <v>146.98</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>146.98</v>
+        <v>151.64</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>151.64</v>
+        <v>154.89</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>154.89</v>
+        <v>159.66</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>0.0214323397520444</v>
+        <v>0.0307960488088321</v>
       </c>
       <c r="K45" s="5" t="n">
-        <v>0.107781433271349</v>
+        <v>0.116972156149433</v>
       </c>
     </row>
     <row r="46">
@@ -1972,34 +1972,34 @@
         <v>97</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>127.89</v>
+        <v>129.67</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>129.67</v>
+        <v>130.2</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>130.2</v>
+        <v>130.41</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>130.41</v>
+        <v>132.82</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>132.82</v>
+        <v>136.29</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>136.29</v>
+        <v>140.69</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>140.69</v>
+        <v>144.64</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>144.64</v>
+        <v>148.37</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>0.028075911578648</v>
+        <v>0.0257881637168142</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.109117398972471</v>
+        <v>0.11707574160518</v>
       </c>
     </row>
   </sheetData>

--- a/tabuladoSHF.xlsx
+++ b/tabuladoSHF.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
@@ -9,11 +9,16 @@
     <sheet name="shf" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Índice de precios hipotecarios</t>
   </si>
@@ -168,13 +173,10 @@
     <t xml:space="preserve">2017=100</t>
   </si>
   <si>
-    <t xml:space="preserve">2021 T4 - 2023 T1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Periodicidad Trimestral</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: agosto 2023</t>
+    <t xml:space="preserve">Próxima actualización: noviembre 2023</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: SHF; Sociedad Hipotecaía Federal</t>
@@ -183,9 +185,6 @@
     <t xml:space="preserve">Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice SHF 2021 T2</t>
-  </si>
-  <si>
     <t xml:space="preserve">Índice SHF 2021 T3</t>
   </si>
   <si>
@@ -205,6 +204,9 @@
   </si>
   <si>
     <t xml:space="preserve">Índice SHF 2023 T1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2023 T2</t>
   </si>
   <si>
     <t xml:space="preserve">Varición MM</t>
@@ -317,7 +319,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,10 +333,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <b/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -444,24 +454,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -822,22 +840,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -848,1158 +866,1158 @@
       <c r="E13" s="6"/>
     </row>
     <row r="14" ht="23.25" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G14" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="H14" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="I14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>132.58</v>
+        <v>133.91</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>133.91</v>
+        <v>135.03</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>135.03</v>
+        <v>138.03</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>138.03</v>
+        <v>141.76</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>141.76</v>
+        <v>145.98</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>145.98</v>
+        <v>149.33</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>149.33</v>
+        <v>154.11</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>154.11</v>
+        <v>157.52</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03200964307239</v>
+        <v>0.0221270521056387</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.116496413823082</v>
+        <v>0.11117381489842</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>139.59</v>
+        <v>142.53</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>142.53</v>
+        <v>145.15</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>145.15</v>
+        <v>149.26</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>149.26</v>
+        <v>154.64</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>154.64</v>
+        <v>160.71</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>160.71</v>
+        <v>166.18</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>166.18</v>
+        <v>172.24</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>172.24</v>
+        <v>176.9</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0364664821278133</v>
+        <v>0.0270552717138877</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.153959533699585</v>
+        <v>0.143947232281428</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>142.19</v>
+        <v>146.06</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>146.06</v>
+        <v>149.65</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>149.65</v>
+        <v>154.58</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>154.58</v>
+        <v>160.73</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>160.73</v>
+        <v>167.92</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>167.92</v>
+        <v>174.29</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>174.29</v>
+        <v>182.28</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>182.28</v>
+        <v>189.96</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0458431350048769</v>
+        <v>0.0421329822251482</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.179195238711347</v>
+        <v>0.181857773906551</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>138.35</v>
+        <v>141.39</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>141.39</v>
+        <v>144.12</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>144.12</v>
+        <v>147.49</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>147.49</v>
+        <v>152.07</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>152.07</v>
+        <v>157.37</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>157.37</v>
+        <v>161.49</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>161.49</v>
+        <v>166.53</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>166.53</v>
+        <v>170.48</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0312093628088426</v>
+        <v>0.0237194499489581</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.129093497864262</v>
+        <v>0.121062668507924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>133.29</v>
+        <v>135.28</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>135.28</v>
+        <v>136.92</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>136.92</v>
+        <v>139.65</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>139.65</v>
+        <v>143.56</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>143.56</v>
+        <v>148.66</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>148.66</v>
+        <v>153.5</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>153.5</v>
+        <v>158.89</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>158.89</v>
+        <v>163.2</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0351140065146578</v>
+        <v>0.0271256844357732</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.137773003938417</v>
+        <v>0.136806910002786</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>135.07</v>
+        <v>137.1</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>137.1</v>
+        <v>139.24</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>139.24</v>
+        <v>143.05</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>143.05</v>
+        <v>146.95</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>146.95</v>
+        <v>151.53</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>151.53</v>
+        <v>155.49</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>155.49</v>
+        <v>160.3</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>160.3</v>
+        <v>164.09</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0309344652389221</v>
+        <v>0.0236431690580161</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.120587207270185</v>
+        <v>0.11663831235114</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>132.34</v>
+        <v>134.38</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>134.38</v>
+        <v>136.24</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>136.24</v>
+        <v>139</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>139</v>
+        <v>142.39</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>142.39</v>
+        <v>146.37</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>146.37</v>
+        <v>149.07</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>149.07</v>
+        <v>153.68</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>153.68</v>
+        <v>157.43</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0309250687596432</v>
+        <v>0.0244013534617387</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.105611510791367</v>
+        <v>0.105625395041787</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>134.64</v>
+        <v>137.62</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>137.62</v>
+        <v>140.23</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>140.23</v>
+        <v>143.35</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>143.35</v>
+        <v>146.96</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>146.96</v>
+        <v>151.22</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>151.22</v>
+        <v>154.17</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>154.17</v>
+        <v>159.34</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>159.34</v>
+        <v>164.49</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.0335344100668096</v>
+        <v>0.0323208233965107</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.111545169166376</v>
+        <v>0.119284158954818</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>127.35</v>
+        <v>130.17</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>130.17</v>
+        <v>131.65</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>131.65</v>
+        <v>132.98</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>132.98</v>
+        <v>136</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>136</v>
+        <v>140.55</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>140.55</v>
+        <v>144.31</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>144.31</v>
+        <v>150.37</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>150.37</v>
+        <v>153.79</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0419929318827523</v>
+        <v>0.022743898383986</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.130771544593172</v>
+        <v>0.130808823529412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>128.71</v>
+        <v>130.3</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>130.3</v>
+        <v>131.59</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>131.59</v>
+        <v>133.22</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>133.22</v>
+        <v>135.01</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>135.01</v>
+        <v>137.1</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>137.1</v>
+        <v>137.81</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>137.81</v>
+        <v>141.75</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>141.75</v>
+        <v>145.4</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0285900878020462</v>
+        <v>0.0257495590828924</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0640294250112596</v>
+        <v>0.0769572624250057</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>134.97</v>
+        <v>136.43</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>136.43</v>
+        <v>138.01</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>138.01</v>
+        <v>140.98</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>140.98</v>
+        <v>144.31</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>144.31</v>
+        <v>147.84</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>147.84</v>
+        <v>150.22</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>150.22</v>
+        <v>154</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>154</v>
+        <v>157.05</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0251630941286114</v>
+        <v>0.0198051948051949</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.092353525322741</v>
+        <v>0.0882821703277668</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>130.66</v>
+        <v>133.53</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>133.53</v>
+        <v>136.17</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>136.17</v>
+        <v>139.68</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>139.68</v>
+        <v>143.97</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>143.97</v>
+        <v>149.96</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>149.96</v>
+        <v>155.32</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>155.32</v>
+        <v>161</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>161</v>
+        <v>164.76</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0365696626319856</v>
+        <v>0.0233540372670806</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.152634593356243</v>
+        <v>0.144405084392582</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>127.54</v>
+        <v>128.75</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>128.75</v>
+        <v>129.87</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>129.87</v>
+        <v>132.23</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>132.23</v>
+        <v>135.13</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>135.13</v>
+        <v>138.95</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>138.95</v>
+        <v>142.31</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>142.31</v>
+        <v>146.08</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>146.08</v>
+        <v>148.29</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0264914623006114</v>
+        <v>0.0151286966046</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.104741737880965</v>
+        <v>0.0973877007326278</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>144.06</v>
+        <v>146.92</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>146.92</v>
+        <v>148.62</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>148.62</v>
+        <v>151.77</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>151.77</v>
+        <v>156</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>156</v>
+        <v>161.06</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>161.06</v>
+        <v>165.48</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>165.48</v>
+        <v>171.18</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>171.18</v>
+        <v>175.23</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.0344452501812909</v>
+        <v>0.0236593059936907</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.127890887527179</v>
+        <v>0.123269230769231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>129.22</v>
+        <v>130.82</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>130.82</v>
+        <v>132.28</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>132.28</v>
+        <v>134.32</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>134.32</v>
+        <v>136.51</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>136.51</v>
+        <v>139.41</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>139.41</v>
+        <v>140.34</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>140.34</v>
+        <v>143.3</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>143.3</v>
+        <v>145.59</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.0210916346016816</v>
+        <v>0.015980460572226</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0668552709946397</v>
+        <v>0.0665152736063293</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>135.28</v>
+        <v>138.36</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>138.36</v>
+        <v>141.45</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>141.45</v>
+        <v>145.59</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>145.59</v>
+        <v>150</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>150</v>
+        <v>155.38</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>155.38</v>
+        <v>160.13</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>160.13</v>
+        <v>164.17</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>164.17</v>
+        <v>166.26</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0252295010304127</v>
+        <v>0.0127307059755133</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.127618655127413</v>
+        <v>0.1084</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>131.17</v>
+        <v>134.46</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>134.46</v>
+        <v>137.56</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>137.56</v>
+        <v>140.65</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>140.65</v>
+        <v>143.9</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>143.9</v>
+        <v>148.13</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>148.13</v>
+        <v>149.95</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>149.95</v>
+        <v>153.33</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>153.33</v>
+        <v>156.57</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>0.0225408469489832</v>
+        <v>0.0211308941498727</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>0.0901528617134733</v>
+        <v>0.088047255038221</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>140.68</v>
+        <v>144.47</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>144.47</v>
+        <v>148.24</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>148.24</v>
+        <v>153.13</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>153.13</v>
+        <v>158.72</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>158.72</v>
+        <v>165.23</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>165.23</v>
+        <v>170.46</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>170.46</v>
+        <v>176.23</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>176.23</v>
+        <v>181.9</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>0.0338495834799952</v>
+        <v>0.0321738637008455</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>0.150852217070463</v>
+        <v>0.146043346774194</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>138.02</v>
+        <v>140.13</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>140.13</v>
+        <v>142.25</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>142.25</v>
+        <v>145.65</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>145.65</v>
+        <v>149.29</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>149.29</v>
+        <v>153.63</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>153.63</v>
+        <v>157.05</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>157.05</v>
+        <v>161.87</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>161.87</v>
+        <v>166.36</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>0.0306908627825533</v>
+        <v>0.027738308519182</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>0.111362856162032</v>
+        <v>0.114341215084734</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>131.84</v>
+        <v>133.44</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>133.44</v>
+        <v>134.57</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>134.57</v>
+        <v>136.64</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>136.64</v>
+        <v>139.39</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>139.39</v>
+        <v>142.84</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>142.84</v>
+        <v>145.37</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>145.37</v>
+        <v>149.23</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>149.23</v>
+        <v>151.96</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>0.0265529338928252</v>
+        <v>0.0182939087314884</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.0921399297423888</v>
+        <v>0.0901786354831768</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>137.01</v>
+        <v>139.51</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>139.51</v>
+        <v>141.71</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>141.71</v>
+        <v>144.75</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>144.75</v>
+        <v>148.13</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>148.13</v>
+        <v>151.5</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>151.5</v>
+        <v>152.75</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>152.75</v>
+        <v>155.61</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>155.61</v>
+        <v>158.12</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.0187234042553193</v>
+        <v>0.0161300687616477</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.0750259067357515</v>
+        <v>0.067440761493283</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>131.68</v>
+        <v>133.58</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>133.58</v>
+        <v>135.37</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>135.37</v>
+        <v>138.13</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>138.13</v>
+        <v>141.52</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>141.52</v>
+        <v>146.09</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>146.09</v>
+        <v>149.66</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>149.66</v>
+        <v>155.97</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>155.97</v>
+        <v>161.5</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.0421622343979688</v>
+        <v>0.0354555363210873</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.129153695793818</v>
+        <v>0.141181458451102</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>142.51</v>
+        <v>146.51</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>146.51</v>
+        <v>149.93</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>149.93</v>
+        <v>155.19</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>155.19</v>
+        <v>161.69</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>161.69</v>
+        <v>169.2</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>169.2</v>
+        <v>175.12</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>175.12</v>
+        <v>181.79</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>181.79</v>
+        <v>188.31</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>0.0380881681132936</v>
+        <v>0.0358655591616701</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>0.171402796571944</v>
+        <v>0.16463603191292</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>137.5</v>
+        <v>139.57</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>139.57</v>
+        <v>141.71</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>141.71</v>
+        <v>145.02</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>145.02</v>
+        <v>148.32</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>148.32</v>
+        <v>151.6</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>151.6</v>
+        <v>152.78</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>152.78</v>
+        <v>156.16</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>156.16</v>
+        <v>159.78</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>0.02212331456997</v>
+        <v>0.0231813524590163</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>0.076816990759895</v>
+        <v>0.0772653721682848</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>140.11</v>
+        <v>142.95</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>142.95</v>
+        <v>145.87</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>145.87</v>
+        <v>150.59</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>150.59</v>
+        <v>156.31</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>156.31</v>
+        <v>163.2</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>163.2</v>
+        <v>169.49</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>169.49</v>
+        <v>175.49</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>175.49</v>
+        <v>180.37</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>0.0354003186028675</v>
+        <v>0.0278078522992762</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>0.165349624809084</v>
+        <v>0.153924892841149</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>132.41</v>
+        <v>134.17</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>134.17</v>
+        <v>135.57</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>135.57</v>
+        <v>137.86</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>137.86</v>
+        <v>141.02</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>141.02</v>
+        <v>144.84</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>144.84</v>
+        <v>147.89</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>147.89</v>
+        <v>153.69</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>153.69</v>
+        <v>159.08</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>0.0392183379538846</v>
+        <v>0.0350705966556055</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.114826635717394</v>
+        <v>0.128066940859453</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>129.68</v>
+        <v>130.84</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>130.84</v>
+        <v>131.93</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>131.93</v>
+        <v>134.15</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>134.15</v>
+        <v>137.17</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>137.17</v>
+        <v>140.88</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>140.88</v>
+        <v>143.88</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>143.88</v>
+        <v>148.72</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>148.72</v>
+        <v>152.17</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.0336391437308869</v>
+        <v>0.0231979558902635</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.108609765188222</v>
+        <v>0.109353357148064</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>130.62</v>
+        <v>132.18</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>132.18</v>
+        <v>133.29</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>133.29</v>
+        <v>135.86</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>135.86</v>
+        <v>139.2</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>139.2</v>
+        <v>143.57</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>143.57</v>
+        <v>147.45</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>147.45</v>
+        <v>151.65</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>151.65</v>
+        <v>154.43</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.0284842319430316</v>
+        <v>0.0183316848005275</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.116222582069778</v>
+        <v>0.10941091954023</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>127.11</v>
+        <v>128.58</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>128.58</v>
+        <v>129.63</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>129.63</v>
+        <v>131.74</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>131.74</v>
+        <v>134.54</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>134.54</v>
+        <v>138.28</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>138.28</v>
+        <v>141.62</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>141.62</v>
+        <v>144.29</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>144.29</v>
+        <v>144.48</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>0.0188532693122438</v>
+        <v>0.00131679257051776</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>0.0952633976013357</v>
+        <v>0.0738813735691988</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>130.03</v>
+        <v>132.58</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>132.58</v>
+        <v>134.7</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>134.7</v>
+        <v>137.3</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>137.3</v>
+        <v>140.7</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>140.7</v>
+        <v>145.33</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>145.33</v>
+        <v>149.28</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>149.28</v>
+        <v>153.47</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>153.47</v>
+        <v>156.25</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>0.0280680600214362</v>
+        <v>0.0181142894376751</v>
       </c>
       <c r="K44" s="5" t="n">
-        <v>0.117771303714494</v>
+        <v>0.110518834399431</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>135.58</v>
+        <v>137.88</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>137.88</v>
+        <v>139.82</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>139.82</v>
+        <v>142.94</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>142.94</v>
+        <v>146.98</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>146.98</v>
+        <v>151.64</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>151.64</v>
+        <v>154.89</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>154.89</v>
+        <v>159.66</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>159.66</v>
+        <v>163.58</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>0.0307960488088321</v>
+        <v>0.024552173368408</v>
       </c>
       <c r="K45" s="5" t="n">
-        <v>0.116972156149433</v>
+        <v>0.112940536127364</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>129.67</v>
+        <v>130.2</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>130.2</v>
+        <v>130.41</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>130.41</v>
+        <v>132.82</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>132.82</v>
+        <v>136.29</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>136.29</v>
+        <v>140.69</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>140.69</v>
+        <v>144.64</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>144.64</v>
+        <v>148.37</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>148.37</v>
+        <v>149.58</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>0.0257881637168142</v>
+        <v>0.0081552874570332</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.11707574160518</v>
+        <v>0.0975126568346909</v>
       </c>
     </row>
   </sheetData>

--- a/tabuladoSHF.xlsx
+++ b/tabuladoSHF.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Índice de precios hipotecarios</t>
   </si>
@@ -173,10 +173,13 @@
     <t xml:space="preserve">2017=100</t>
   </si>
   <si>
+    <t xml:space="preserve">2021 T4 - 2023 T3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Periodicidad Trimestral</t>
   </si>
   <si>
-    <t xml:space="preserve">Próxima actualización: noviembre 2023</t>
+    <t xml:space="preserve">Próxima actualización: febrero 2024</t>
   </si>
   <si>
     <t xml:space="preserve">FUENTE: SHF; Sociedad Hipotecaía Federal</t>
@@ -185,9 +188,6 @@
     <t xml:space="preserve">Estado</t>
   </si>
   <si>
-    <t xml:space="preserve">Índice SHF 2021 T3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Índice SHF 2021 T4</t>
   </si>
   <si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t xml:space="preserve">Índice SHF 2023 T2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice SHF 2023 T3</t>
   </si>
   <si>
     <t xml:space="preserve">Varición MM</t>
@@ -840,22 +843,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -867,1157 +870,1157 @@
     </row>
     <row r="14" ht="23.25" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B15" s="4" t="n">
-        <v>133.91</v>
+        <v>135.03</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>135.03</v>
+        <v>138.03</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>138.03</v>
+        <v>141.76</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>141.76</v>
+        <v>145.98</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>145.98</v>
+        <v>149.33</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>149.33</v>
+        <v>154.11</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>154.11</v>
+        <v>157.52</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>157.52</v>
+        <v>160.64</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0221270521056387</v>
+        <v>0.0198070086338242</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.11117381489842</v>
+        <v>0.100424715714482</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="4" t="n">
-        <v>142.53</v>
+        <v>145.15</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>145.15</v>
+        <v>149.26</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>149.26</v>
+        <v>154.64</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>154.64</v>
+        <v>160.71</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>160.71</v>
+        <v>166.18</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>166.18</v>
+        <v>172.24</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>172.24</v>
+        <v>176.9</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>176.9</v>
+        <v>182.28</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0270552717138877</v>
+        <v>0.0304126625211985</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.143947232281428</v>
+        <v>0.134216912450999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="4" t="n">
-        <v>146.06</v>
+        <v>149.65</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>149.65</v>
+        <v>154.58</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>154.58</v>
+        <v>160.73</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>160.73</v>
+        <v>167.92</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>167.92</v>
+        <v>174.29</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>174.29</v>
+        <v>182.28</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>182.28</v>
+        <v>189.96</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>189.96</v>
+        <v>197.46</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0421329822251482</v>
+        <v>0.0394819962097284</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.181857773906551</v>
+        <v>0.175917103382563</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="4" t="n">
-        <v>141.39</v>
+        <v>144.12</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>144.12</v>
+        <v>147.49</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>147.49</v>
+        <v>152.07</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>152.07</v>
+        <v>157.37</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>157.37</v>
+        <v>161.49</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>161.49</v>
+        <v>166.53</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>166.53</v>
+        <v>170.48</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>170.48</v>
+        <v>174.63</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.0237194499489581</v>
+        <v>0.0243430314406383</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.121062668507924</v>
+        <v>0.109677829319438</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4" t="n">
-        <v>135.28</v>
+        <v>136.92</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>136.92</v>
+        <v>139.65</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>139.65</v>
+        <v>143.56</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>143.56</v>
+        <v>148.66</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>148.66</v>
+        <v>153.5</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>153.5</v>
+        <v>158.89</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>158.89</v>
+        <v>163.2</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>163.2</v>
+        <v>166.89</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0271256844357732</v>
+        <v>0.0226102941176471</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.136806910002786</v>
+        <v>0.122628817435759</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="4" t="n">
-        <v>137.1</v>
+        <v>139.24</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>139.24</v>
+        <v>143.05</v>
       </c>
       <c r="D20" s="4" t="n">
-        <v>143.05</v>
+        <v>146.95</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>146.95</v>
+        <v>151.53</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>151.53</v>
+        <v>155.49</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>155.49</v>
+        <v>160.3</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>160.3</v>
+        <v>164.09</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>164.09</v>
+        <v>167.92</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.0236431690580161</v>
+        <v>0.0233408495337923</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.11663831235114</v>
+        <v>0.108163399986801</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="4" t="n">
-        <v>134.38</v>
+        <v>136.24</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>136.24</v>
+        <v>139</v>
       </c>
       <c r="D21" s="4" t="n">
-        <v>139</v>
+        <v>142.39</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>142.39</v>
+        <v>146.37</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>146.37</v>
+        <v>149.07</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>149.07</v>
+        <v>153.68</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>153.68</v>
+        <v>157.43</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>157.43</v>
+        <v>161.58</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.0244013534617387</v>
+        <v>0.0263609223146797</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.105625395041787</v>
+        <v>0.103914736626358</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" s="4" t="n">
-        <v>137.62</v>
+        <v>140.23</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>140.23</v>
+        <v>143.35</v>
       </c>
       <c r="D22" s="4" t="n">
-        <v>143.35</v>
+        <v>146.96</v>
       </c>
       <c r="E22" s="4" t="n">
-        <v>146.96</v>
+        <v>151.22</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>151.22</v>
+        <v>154.17</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>154.17</v>
+        <v>159.34</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>159.34</v>
+        <v>164.49</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>164.49</v>
+        <v>168.88</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.0323208233965107</v>
+        <v>0.0266885524955924</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.119284158954818</v>
+        <v>0.116783494246793</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B23" s="4" t="n">
-        <v>130.17</v>
+        <v>131.65</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>131.65</v>
+        <v>132.98</v>
       </c>
       <c r="D23" s="4" t="n">
-        <v>132.98</v>
+        <v>136</v>
       </c>
       <c r="E23" s="4" t="n">
-        <v>136</v>
+        <v>140.55</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>140.55</v>
+        <v>144.31</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>144.31</v>
+        <v>150.37</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>150.37</v>
+        <v>153.79</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>153.79</v>
+        <v>155.18</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.022743898383986</v>
+        <v>0.00903829897912756</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.130808823529412</v>
+        <v>0.104091070793312</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B24" s="4" t="n">
-        <v>130.3</v>
+        <v>131.59</v>
       </c>
       <c r="C24" s="4" t="n">
-        <v>131.59</v>
+        <v>133.22</v>
       </c>
       <c r="D24" s="4" t="n">
-        <v>133.22</v>
+        <v>135.01</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>135.01</v>
+        <v>137.1</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>137.1</v>
+        <v>137.81</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>137.81</v>
+        <v>141.75</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>141.75</v>
+        <v>145.4</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>145.4</v>
+        <v>148.72</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.0257495590828924</v>
+        <v>0.0228335625859697</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0769572624250057</v>
+        <v>0.0847556528081692</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" s="4" t="n">
-        <v>136.43</v>
+        <v>138.01</v>
       </c>
       <c r="C25" s="4" t="n">
-        <v>138.01</v>
+        <v>140.98</v>
       </c>
       <c r="D25" s="4" t="n">
-        <v>140.98</v>
+        <v>144.31</v>
       </c>
       <c r="E25" s="4" t="n">
-        <v>144.31</v>
+        <v>147.84</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>147.84</v>
+        <v>150.22</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>150.22</v>
+        <v>154</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>154</v>
+        <v>157.05</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>157.05</v>
+        <v>160.4</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.0198051948051949</v>
+        <v>0.0213307863737662</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.0882821703277668</v>
+        <v>0.0849567099567099</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="4" t="n">
-        <v>133.53</v>
+        <v>136.17</v>
       </c>
       <c r="C26" s="4" t="n">
-        <v>136.17</v>
+        <v>139.68</v>
       </c>
       <c r="D26" s="4" t="n">
-        <v>139.68</v>
+        <v>143.97</v>
       </c>
       <c r="E26" s="4" t="n">
-        <v>143.97</v>
+        <v>149.96</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>149.96</v>
+        <v>155.32</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>155.32</v>
+        <v>161</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>161</v>
+        <v>164.76</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>164.76</v>
+        <v>167.74</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.0233540372670806</v>
+        <v>0.0180869142995874</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.144405084392582</v>
+        <v>0.118564950653508</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="4" t="n">
-        <v>128.75</v>
+        <v>129.87</v>
       </c>
       <c r="C27" s="4" t="n">
-        <v>129.87</v>
+        <v>132.23</v>
       </c>
       <c r="D27" s="4" t="n">
-        <v>132.23</v>
+        <v>135.13</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>135.13</v>
+        <v>138.95</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>138.95</v>
+        <v>142.31</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>142.31</v>
+        <v>146.08</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>146.08</v>
+        <v>148.29</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>148.29</v>
+        <v>150.37</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0151286966046</v>
+        <v>0.0140265695596467</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0973877007326278</v>
+        <v>0.0821878373515654</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" s="4" t="n">
-        <v>146.92</v>
+        <v>148.62</v>
       </c>
       <c r="C28" s="4" t="n">
-        <v>148.62</v>
+        <v>151.77</v>
       </c>
       <c r="D28" s="4" t="n">
-        <v>151.77</v>
+        <v>156</v>
       </c>
       <c r="E28" s="4" t="n">
-        <v>156</v>
+        <v>161.06</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>161.06</v>
+        <v>165.48</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>165.48</v>
+        <v>171.18</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>171.18</v>
+        <v>175.23</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>175.23</v>
+        <v>178.49</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.0236593059936907</v>
+        <v>0.0186041202990357</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.123269230769231</v>
+        <v>0.108220538929592</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="4" t="n">
-        <v>130.82</v>
+        <v>132.28</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>132.28</v>
+        <v>134.32</v>
       </c>
       <c r="D29" s="4" t="n">
-        <v>134.32</v>
+        <v>136.51</v>
       </c>
       <c r="E29" s="4" t="n">
-        <v>136.51</v>
+        <v>139.41</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>139.41</v>
+        <v>140.34</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>140.34</v>
+        <v>143.3</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>143.3</v>
+        <v>145.59</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>145.59</v>
+        <v>147.79</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.015980460572226</v>
+        <v>0.0151109279483481</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.0665152736063293</v>
+        <v>0.0601104655333189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B30" s="4" t="n">
-        <v>138.36</v>
+        <v>141.45</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>141.45</v>
+        <v>145.59</v>
       </c>
       <c r="D30" s="4" t="n">
-        <v>145.59</v>
+        <v>150</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>150</v>
+        <v>155.38</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>155.38</v>
+        <v>160.13</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>160.13</v>
+        <v>164.17</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>164.17</v>
+        <v>166.26</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>166.26</v>
+        <v>167.98</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0127307059755133</v>
+        <v>0.0103452423914352</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1084</v>
+        <v>0.0810915175698288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B31" s="4" t="n">
-        <v>134.46</v>
+        <v>137.56</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>137.56</v>
+        <v>140.65</v>
       </c>
       <c r="D31" s="4" t="n">
-        <v>140.65</v>
+        <v>143.9</v>
       </c>
       <c r="E31" s="4" t="n">
-        <v>143.9</v>
+        <v>148.13</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>148.13</v>
+        <v>149.95</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>149.95</v>
+        <v>153.33</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>153.33</v>
+        <v>156.57</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>156.57</v>
+        <v>158.98</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>0.0211308941498727</v>
+        <v>0.0153924762087245</v>
       </c>
       <c r="K31" s="5" t="n">
-        <v>0.088047255038221</v>
+        <v>0.0732464726929047</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="4" t="n">
-        <v>144.47</v>
+        <v>148.24</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>148.24</v>
+        <v>153.13</v>
       </c>
       <c r="D32" s="4" t="n">
-        <v>153.13</v>
+        <v>158.72</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>158.72</v>
+        <v>165.23</v>
       </c>
       <c r="F32" s="4" t="n">
-        <v>165.23</v>
+        <v>170.46</v>
       </c>
       <c r="G32" s="4" t="n">
-        <v>170.46</v>
+        <v>176.23</v>
       </c>
       <c r="H32" s="4" t="n">
-        <v>176.23</v>
+        <v>181.9</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>181.9</v>
+        <v>186.94</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>0.0321738637008455</v>
+        <v>0.0277075316107751</v>
       </c>
       <c r="K32" s="5" t="n">
-        <v>0.146043346774194</v>
+        <v>0.131392604248623</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B33" s="4" t="n">
-        <v>140.13</v>
+        <v>142.25</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>142.25</v>
+        <v>145.65</v>
       </c>
       <c r="D33" s="4" t="n">
-        <v>145.65</v>
+        <v>149.29</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>149.29</v>
+        <v>153.63</v>
       </c>
       <c r="F33" s="4" t="n">
-        <v>153.63</v>
+        <v>157.05</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>157.05</v>
+        <v>161.87</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>161.87</v>
+        <v>166.36</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>166.36</v>
+        <v>170.77</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>0.027738308519182</v>
+        <v>0.0265087761481124</v>
       </c>
       <c r="K33" s="5" t="n">
-        <v>0.114341215084734</v>
+        <v>0.111566751285556</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B34" s="4" t="n">
-        <v>133.44</v>
+        <v>134.57</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>134.57</v>
+        <v>136.64</v>
       </c>
       <c r="D34" s="4" t="n">
-        <v>136.64</v>
+        <v>139.39</v>
       </c>
       <c r="E34" s="4" t="n">
-        <v>139.39</v>
+        <v>142.84</v>
       </c>
       <c r="F34" s="4" t="n">
-        <v>142.84</v>
+        <v>145.37</v>
       </c>
       <c r="G34" s="4" t="n">
-        <v>145.37</v>
+        <v>149.23</v>
       </c>
       <c r="H34" s="4" t="n">
-        <v>149.23</v>
+        <v>151.96</v>
       </c>
       <c r="I34" s="4" t="n">
-        <v>151.96</v>
+        <v>155.42</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>0.0182939087314884</v>
+        <v>0.0227691497762568</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.0901786354831768</v>
+        <v>0.0880705684682161</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="4" t="n">
-        <v>139.51</v>
+        <v>141.71</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>141.71</v>
+        <v>144.75</v>
       </c>
       <c r="D35" s="4" t="n">
-        <v>144.75</v>
+        <v>148.13</v>
       </c>
       <c r="E35" s="4" t="n">
-        <v>148.13</v>
+        <v>151.5</v>
       </c>
       <c r="F35" s="4" t="n">
-        <v>151.5</v>
+        <v>152.75</v>
       </c>
       <c r="G35" s="4" t="n">
-        <v>152.75</v>
+        <v>155.61</v>
       </c>
       <c r="H35" s="4" t="n">
-        <v>155.61</v>
+        <v>158.12</v>
       </c>
       <c r="I35" s="4" t="n">
-        <v>158.12</v>
+        <v>161.31</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.0161300687616477</v>
+        <v>0.0201745509739437</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.067440761493283</v>
+        <v>0.0647524752475248</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" s="4" t="n">
-        <v>133.58</v>
+        <v>135.37</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>135.37</v>
+        <v>138.13</v>
       </c>
       <c r="D36" s="4" t="n">
-        <v>138.13</v>
+        <v>141.52</v>
       </c>
       <c r="E36" s="4" t="n">
-        <v>141.52</v>
+        <v>146.09</v>
       </c>
       <c r="F36" s="4" t="n">
-        <v>146.09</v>
+        <v>149.66</v>
       </c>
       <c r="G36" s="4" t="n">
-        <v>149.66</v>
+        <v>155.97</v>
       </c>
       <c r="H36" s="4" t="n">
-        <v>155.97</v>
+        <v>161.5</v>
       </c>
       <c r="I36" s="4" t="n">
-        <v>161.5</v>
+        <v>166.16</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.0354555363210873</v>
+        <v>0.0288544891640867</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>0.141181458451102</v>
+        <v>0.137381066465877</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" s="4" t="n">
-        <v>146.51</v>
+        <v>149.93</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>149.93</v>
+        <v>155.19</v>
       </c>
       <c r="D37" s="4" t="n">
-        <v>155.19</v>
+        <v>161.69</v>
       </c>
       <c r="E37" s="4" t="n">
-        <v>161.69</v>
+        <v>169.2</v>
       </c>
       <c r="F37" s="4" t="n">
-        <v>169.2</v>
+        <v>175.12</v>
       </c>
       <c r="G37" s="4" t="n">
-        <v>175.12</v>
+        <v>181.79</v>
       </c>
       <c r="H37" s="4" t="n">
-        <v>181.79</v>
+        <v>188.31</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>188.31</v>
+        <v>193.68</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>0.0358655591616701</v>
+        <v>0.0285168073920663</v>
       </c>
       <c r="K37" s="5" t="n">
-        <v>0.16463603191292</v>
+        <v>0.14468085106383</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B38" s="4" t="n">
-        <v>139.57</v>
+        <v>141.71</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>141.71</v>
+        <v>145.02</v>
       </c>
       <c r="D38" s="4" t="n">
-        <v>145.02</v>
+        <v>148.32</v>
       </c>
       <c r="E38" s="4" t="n">
-        <v>148.32</v>
+        <v>151.6</v>
       </c>
       <c r="F38" s="4" t="n">
-        <v>151.6</v>
+        <v>152.78</v>
       </c>
       <c r="G38" s="4" t="n">
-        <v>152.78</v>
+        <v>156.16</v>
       </c>
       <c r="H38" s="4" t="n">
-        <v>156.16</v>
+        <v>159.78</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>159.78</v>
+        <v>163.63</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>0.0231813524590163</v>
+        <v>0.0240956314933032</v>
       </c>
       <c r="K38" s="5" t="n">
-        <v>0.0772653721682848</v>
+        <v>0.079353562005277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39" s="4" t="n">
-        <v>142.95</v>
+        <v>145.87</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>145.87</v>
+        <v>150.59</v>
       </c>
       <c r="D39" s="4" t="n">
-        <v>150.59</v>
+        <v>156.31</v>
       </c>
       <c r="E39" s="4" t="n">
-        <v>156.31</v>
+        <v>163.2</v>
       </c>
       <c r="F39" s="4" t="n">
-        <v>163.2</v>
+        <v>169.49</v>
       </c>
       <c r="G39" s="4" t="n">
-        <v>169.49</v>
+        <v>175.49</v>
       </c>
       <c r="H39" s="4" t="n">
-        <v>175.49</v>
+        <v>180.37</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>180.37</v>
+        <v>184.93</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>0.0278078522992762</v>
+        <v>0.0252813660808338</v>
       </c>
       <c r="K39" s="5" t="n">
-        <v>0.153924892841149</v>
+        <v>0.133149509803922</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="4" t="n">
-        <v>134.17</v>
+        <v>135.57</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>135.57</v>
+        <v>137.86</v>
       </c>
       <c r="D40" s="4" t="n">
-        <v>137.86</v>
+        <v>141.02</v>
       </c>
       <c r="E40" s="4" t="n">
-        <v>141.02</v>
+        <v>144.84</v>
       </c>
       <c r="F40" s="4" t="n">
-        <v>144.84</v>
+        <v>147.89</v>
       </c>
       <c r="G40" s="4" t="n">
-        <v>147.89</v>
+        <v>153.69</v>
       </c>
       <c r="H40" s="4" t="n">
-        <v>153.69</v>
+        <v>159.08</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>159.08</v>
+        <v>163.77</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>0.0350705966556055</v>
+        <v>0.0294820216243399</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>0.128066940859453</v>
+        <v>0.13069594034797</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B41" s="4" t="n">
-        <v>130.84</v>
+        <v>131.93</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>131.93</v>
+        <v>134.15</v>
       </c>
       <c r="D41" s="4" t="n">
-        <v>134.15</v>
+        <v>137.17</v>
       </c>
       <c r="E41" s="4" t="n">
-        <v>137.17</v>
+        <v>140.88</v>
       </c>
       <c r="F41" s="4" t="n">
-        <v>140.88</v>
+        <v>143.88</v>
       </c>
       <c r="G41" s="4" t="n">
-        <v>143.88</v>
+        <v>148.72</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>148.72</v>
+        <v>152.17</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>152.17</v>
+        <v>156.03</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.0231979558902635</v>
+        <v>0.0253663665637118</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.109353357148064</v>
+        <v>0.107538330494038</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" s="4" t="n">
-        <v>132.18</v>
+        <v>133.29</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>133.29</v>
+        <v>135.86</v>
       </c>
       <c r="D42" s="4" t="n">
-        <v>135.86</v>
+        <v>139.2</v>
       </c>
       <c r="E42" s="4" t="n">
-        <v>139.2</v>
+        <v>143.57</v>
       </c>
       <c r="F42" s="4" t="n">
-        <v>143.57</v>
+        <v>147.45</v>
       </c>
       <c r="G42" s="4" t="n">
-        <v>147.45</v>
+        <v>151.65</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>151.65</v>
+        <v>154.43</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>154.43</v>
+        <v>156.87</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.0183316848005275</v>
+        <v>0.0158000388525545</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.10941091954023</v>
+        <v>0.0926377376889322</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B43" s="4" t="n">
-        <v>128.58</v>
+        <v>129.63</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>129.63</v>
+        <v>131.74</v>
       </c>
       <c r="D43" s="4" t="n">
-        <v>131.74</v>
+        <v>134.54</v>
       </c>
       <c r="E43" s="4" t="n">
-        <v>134.54</v>
+        <v>138.28</v>
       </c>
       <c r="F43" s="4" t="n">
-        <v>138.28</v>
+        <v>141.62</v>
       </c>
       <c r="G43" s="4" t="n">
-        <v>141.62</v>
+        <v>144.29</v>
       </c>
       <c r="H43" s="4" t="n">
-        <v>144.29</v>
+        <v>144.48</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>144.48</v>
+        <v>143.51</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>0.00131679257051776</v>
+        <v>-0.00671373200442971</v>
       </c>
       <c r="K43" s="5" t="n">
-        <v>0.0738813735691988</v>
+        <v>0.0378218108186288</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B44" s="4" t="n">
-        <v>132.58</v>
+        <v>134.7</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>134.7</v>
+        <v>137.3</v>
       </c>
       <c r="D44" s="4" t="n">
-        <v>137.3</v>
+        <v>140.7</v>
       </c>
       <c r="E44" s="4" t="n">
-        <v>140.7</v>
+        <v>145.33</v>
       </c>
       <c r="F44" s="4" t="n">
-        <v>145.33</v>
+        <v>149.28</v>
       </c>
       <c r="G44" s="4" t="n">
-        <v>149.28</v>
+        <v>153.47</v>
       </c>
       <c r="H44" s="4" t="n">
-        <v>153.47</v>
+        <v>156.25</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>156.25</v>
+        <v>158.4</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>0.0181142894376751</v>
+        <v>0.01376</v>
       </c>
       <c r="K44" s="5" t="n">
-        <v>0.110518834399431</v>
+        <v>0.0899332553498933</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B45" s="4" t="n">
-        <v>137.88</v>
+        <v>139.82</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>139.82</v>
+        <v>142.94</v>
       </c>
       <c r="D45" s="4" t="n">
-        <v>142.94</v>
+        <v>146.98</v>
       </c>
       <c r="E45" s="4" t="n">
-        <v>146.98</v>
+        <v>151.64</v>
       </c>
       <c r="F45" s="4" t="n">
-        <v>151.64</v>
+        <v>154.89</v>
       </c>
       <c r="G45" s="4" t="n">
-        <v>154.89</v>
+        <v>159.66</v>
       </c>
       <c r="H45" s="4" t="n">
-        <v>159.66</v>
+        <v>163.58</v>
       </c>
       <c r="I45" s="4" t="n">
-        <v>163.58</v>
+        <v>166.74</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>0.024552173368408</v>
+        <v>0.0193177650079472</v>
       </c>
       <c r="K45" s="5" t="n">
-        <v>0.112940536127364</v>
+        <v>0.0995779477710368</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B46" s="4" t="n">
-        <v>130.2</v>
+        <v>130.41</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>130.41</v>
+        <v>132.82</v>
       </c>
       <c r="D46" s="4" t="n">
-        <v>132.82</v>
+        <v>136.29</v>
       </c>
       <c r="E46" s="4" t="n">
-        <v>136.29</v>
+        <v>140.69</v>
       </c>
       <c r="F46" s="4" t="n">
-        <v>140.69</v>
+        <v>144.64</v>
       </c>
       <c r="G46" s="4" t="n">
-        <v>144.64</v>
+        <v>148.37</v>
       </c>
       <c r="H46" s="4" t="n">
-        <v>148.37</v>
+        <v>149.58</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>149.58</v>
+        <v>150.57</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>0.0081552874570332</v>
+        <v>0.00661853188928996</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>0.0975126568346909</v>
+        <v>0.0702253180752008</v>
       </c>
     </row>
   </sheetData>
